--- a/Mercedes-benz/Mercedese_Benz_28feb2020.xlsx
+++ b/Mercedes-benz/Mercedese_Benz_28feb2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\Mercedes-benz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0BDC69-EE8F-432B-AF8A-03960228A485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7382D10A-FFB4-4931-ACF7-5AE1C694666F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" firstSheet="3" activeTab="5" xr2:uid="{2DBA7348-0694-48DC-959A-28F2BD06F127}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="11070" firstSheet="3" activeTab="5" xr2:uid="{2DBA7348-0694-48DC-959A-28F2BD06F127}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -2254,264 +2254,6 @@
     <t>Bug_ID_3</t>
   </si>
   <si>
-    <t>TC_01</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>TC_05</t>
-  </si>
-  <si>
-    <t>TC_06</t>
-  </si>
-  <si>
-    <t>TC_07</t>
-  </si>
-  <si>
-    <t>TC_08</t>
-  </si>
-  <si>
-    <t>TC_09</t>
-  </si>
-  <si>
-    <t>TC_10</t>
-  </si>
-  <si>
-    <t>TC_11</t>
-  </si>
-  <si>
-    <t>TC_12</t>
-  </si>
-  <si>
-    <t>TC_13</t>
-  </si>
-  <si>
-    <t>TC_14</t>
-  </si>
-  <si>
-    <t>TC_15</t>
-  </si>
-  <si>
-    <t>TC_16</t>
-  </si>
-  <si>
-    <t>TC_17</t>
-  </si>
-  <si>
-    <t>TC_18</t>
-  </si>
-  <si>
-    <t>TC_19</t>
-  </si>
-  <si>
-    <t>TC_20</t>
-  </si>
-  <si>
-    <t>TC_21</t>
-  </si>
-  <si>
-    <t>TC_22</t>
-  </si>
-  <si>
-    <t>TC_23</t>
-  </si>
-  <si>
-    <t>TC_24</t>
-  </si>
-  <si>
-    <t>TC_25</t>
-  </si>
-  <si>
-    <t>TC_26</t>
-  </si>
-  <si>
-    <t>TC_27</t>
-  </si>
-  <si>
-    <t>TC_28</t>
-  </si>
-  <si>
-    <t>TC_29</t>
-  </si>
-  <si>
-    <t>TC_30</t>
-  </si>
-  <si>
-    <t>TC_31</t>
-  </si>
-  <si>
-    <t>TC_32</t>
-  </si>
-  <si>
-    <t>TC_33</t>
-  </si>
-  <si>
-    <t>TC_34</t>
-  </si>
-  <si>
-    <t>TC_35</t>
-  </si>
-  <si>
-    <t>TC_36</t>
-  </si>
-  <si>
-    <t>TC_37</t>
-  </si>
-  <si>
-    <t>TC_38</t>
-  </si>
-  <si>
-    <t>TC_39</t>
-  </si>
-  <si>
-    <t>TC_40</t>
-  </si>
-  <si>
-    <t>TC_41</t>
-  </si>
-  <si>
-    <t>TC_42</t>
-  </si>
-  <si>
-    <t>TC_43</t>
-  </si>
-  <si>
-    <t>TC_44</t>
-  </si>
-  <si>
-    <t>TC_45</t>
-  </si>
-  <si>
-    <t>TC_46</t>
-  </si>
-  <si>
-    <t>TC_47</t>
-  </si>
-  <si>
-    <t>TC_48</t>
-  </si>
-  <si>
-    <t>TC_49</t>
-  </si>
-  <si>
-    <t>TC_50</t>
-  </si>
-  <si>
-    <t>TC_51</t>
-  </si>
-  <si>
-    <t>TC_52</t>
-  </si>
-  <si>
-    <t>TC_53</t>
-  </si>
-  <si>
-    <t>TC_54</t>
-  </si>
-  <si>
-    <t>TC_55</t>
-  </si>
-  <si>
-    <t>TC_56</t>
-  </si>
-  <si>
-    <t>TC_57</t>
-  </si>
-  <si>
-    <t>TC_58</t>
-  </si>
-  <si>
-    <t>TC_59</t>
-  </si>
-  <si>
-    <t>TC_60</t>
-  </si>
-  <si>
-    <t>TC_61</t>
-  </si>
-  <si>
-    <t>TC_62</t>
-  </si>
-  <si>
-    <t>TC_63</t>
-  </si>
-  <si>
-    <t>TC_64</t>
-  </si>
-  <si>
-    <t>TC_65</t>
-  </si>
-  <si>
-    <t>TC_66</t>
-  </si>
-  <si>
-    <t>TC_67</t>
-  </si>
-  <si>
-    <t>TC_68</t>
-  </si>
-  <si>
-    <t>TC_69</t>
-  </si>
-  <si>
-    <t>TC_70</t>
-  </si>
-  <si>
-    <t>TC_71</t>
-  </si>
-  <si>
-    <t>TC_72</t>
-  </si>
-  <si>
-    <t>TC_73</t>
-  </si>
-  <si>
-    <t>TC_74</t>
-  </si>
-  <si>
-    <t>TC_75</t>
-  </si>
-  <si>
-    <t>TC_76</t>
-  </si>
-  <si>
-    <t>TC_77</t>
-  </si>
-  <si>
-    <t>TC_78</t>
-  </si>
-  <si>
-    <t>TC_79</t>
-  </si>
-  <si>
-    <t>TC_80</t>
-  </si>
-  <si>
-    <t>TC_81</t>
-  </si>
-  <si>
-    <t>TC_82</t>
-  </si>
-  <si>
-    <t>TC_83</t>
-  </si>
-  <si>
-    <t>TC_84</t>
-  </si>
-  <si>
-    <t>TC_85</t>
-  </si>
-  <si>
-    <t>TC_86</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Will be able to login and redirected to </t>
     </r>
@@ -4078,15 +3820,6 @@
       </rPr>
       <t>Vehicle Invoice Date</t>
     </r>
-  </si>
-  <si>
-    <t>TC_87</t>
-  </si>
-  <si>
-    <t>TC_88</t>
-  </si>
-  <si>
-    <t>TC_89</t>
   </si>
   <si>
     <r>
@@ -7621,12 +7354,6 @@
     </r>
   </si>
   <si>
-    <t>TC_90</t>
-  </si>
-  <si>
-    <t>TC_91</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Select :- </t>
     </r>
@@ -7645,87 +7372,6 @@
     <t>This field is mandatory validation will appear</t>
   </si>
   <si>
-    <t>TC_92</t>
-  </si>
-  <si>
-    <t>TC_93</t>
-  </si>
-  <si>
-    <t>TC_94</t>
-  </si>
-  <si>
-    <t>TC_95</t>
-  </si>
-  <si>
-    <t>TC_96</t>
-  </si>
-  <si>
-    <t>TC_97</t>
-  </si>
-  <si>
-    <t>TC_98</t>
-  </si>
-  <si>
-    <t>TC_99</t>
-  </si>
-  <si>
-    <t>TC_100</t>
-  </si>
-  <si>
-    <t>TC_101</t>
-  </si>
-  <si>
-    <t>TC_102</t>
-  </si>
-  <si>
-    <t>TC_103</t>
-  </si>
-  <si>
-    <t>TC_104</t>
-  </si>
-  <si>
-    <t>TC_105</t>
-  </si>
-  <si>
-    <t>TC_106</t>
-  </si>
-  <si>
-    <t>TC_107</t>
-  </si>
-  <si>
-    <t>TC_108</t>
-  </si>
-  <si>
-    <t>TC_109</t>
-  </si>
-  <si>
-    <t>TC_110</t>
-  </si>
-  <si>
-    <t>TC_111</t>
-  </si>
-  <si>
-    <t>TC_112</t>
-  </si>
-  <si>
-    <t>TC_113</t>
-  </si>
-  <si>
-    <t>TC_114</t>
-  </si>
-  <si>
-    <t>TC_115</t>
-  </si>
-  <si>
-    <t>TC_116</t>
-  </si>
-  <si>
-    <t>TC_117</t>
-  </si>
-  <si>
-    <t>TC_118</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -8044,138 +7690,6 @@
     <t>Select different Transmission Type</t>
   </si>
   <si>
-    <t>TC_119</t>
-  </si>
-  <si>
-    <t>TC_120</t>
-  </si>
-  <si>
-    <t>TC_121</t>
-  </si>
-  <si>
-    <t>TC_122</t>
-  </si>
-  <si>
-    <t>TC_123</t>
-  </si>
-  <si>
-    <t>TC_124</t>
-  </si>
-  <si>
-    <t>TC_125</t>
-  </si>
-  <si>
-    <t>TC_126</t>
-  </si>
-  <si>
-    <t>TC_127</t>
-  </si>
-  <si>
-    <t>TC_128</t>
-  </si>
-  <si>
-    <t>TC_129</t>
-  </si>
-  <si>
-    <t>TC_130</t>
-  </si>
-  <si>
-    <t>TC_131</t>
-  </si>
-  <si>
-    <t>TC_132</t>
-  </si>
-  <si>
-    <t>TC_133</t>
-  </si>
-  <si>
-    <t>TC_134</t>
-  </si>
-  <si>
-    <t>TC_135</t>
-  </si>
-  <si>
-    <t>TC_136</t>
-  </si>
-  <si>
-    <t>TC_137</t>
-  </si>
-  <si>
-    <t>TC_138</t>
-  </si>
-  <si>
-    <t>TC_139</t>
-  </si>
-  <si>
-    <t>TC_140</t>
-  </si>
-  <si>
-    <t>TC_141</t>
-  </si>
-  <si>
-    <t>TC_142</t>
-  </si>
-  <si>
-    <t>TC_143</t>
-  </si>
-  <si>
-    <t>TC_144</t>
-  </si>
-  <si>
-    <t>TC_145</t>
-  </si>
-  <si>
-    <t>TC_146</t>
-  </si>
-  <si>
-    <t>TC_147</t>
-  </si>
-  <si>
-    <t>TC_148</t>
-  </si>
-  <si>
-    <t>TC_149</t>
-  </si>
-  <si>
-    <t>TC_150</t>
-  </si>
-  <si>
-    <t>TC_151</t>
-  </si>
-  <si>
-    <t>TC_152</t>
-  </si>
-  <si>
-    <t>TC_153</t>
-  </si>
-  <si>
-    <t>TC_154</t>
-  </si>
-  <si>
-    <t>TC_155</t>
-  </si>
-  <si>
-    <t>TC_156</t>
-  </si>
-  <si>
-    <t>TC_157</t>
-  </si>
-  <si>
-    <t>TC_158</t>
-  </si>
-  <si>
-    <t>TC_159</t>
-  </si>
-  <si>
-    <t>TC_160</t>
-  </si>
-  <si>
-    <t>TC_161</t>
-  </si>
-  <si>
-    <t>TC_162</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">To verify that dealer is able to Edit </t>
     </r>
@@ -8861,6 +8375,492 @@
   </si>
   <si>
     <t>Certification_Request</t>
+  </si>
+  <si>
+    <t>TC_01/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_02/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_03/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_04/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_05/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_06/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_07/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_08/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_09/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_10/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_11/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_12/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_13/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_14/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_15/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_16/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_17/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_18/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_19/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_20/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_21/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_22/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_23/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_24/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_25/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_26/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_27/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_28/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_29/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_30/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_31/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_32/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_33/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_34/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_35/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_36/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_37/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_38/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_39/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_40/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_41/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_42/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_43/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_44/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_45/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_46/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_47/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_48/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_49/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_50/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_51/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_52/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_53/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_54/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_55/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_56/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_57/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_58/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_59/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_60/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_61/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_62/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_63/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_64/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_65/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_66/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_67/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_68/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_69/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_70/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_71/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_72/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_73/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_74/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_75/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_76/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_77/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_78/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_79/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_80/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_81/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_82/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_83/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_84/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_85/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_86/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_87/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_88/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_89/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_90/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_91/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_92/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_93/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_94/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_95/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_96/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_97/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_98/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_99/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_100/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_101/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_102/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_103/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_104/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_105/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_106/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_107/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_108/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_109/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_110/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_111/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_112/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_113/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_114/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_115/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_116/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_117/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_118/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_119/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_120/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_121/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_122/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_123/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_124/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_125/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_126/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_127/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_128/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_129/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_130/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_131/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_132/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_133/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_134/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_135/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_136/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_137/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_138/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_139/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_140/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_141/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_142/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_143/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_144/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_145/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_146/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_147/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_148/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_149/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_150/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_151/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_152/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_153/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_154/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_155/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_156/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_157/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_158/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_159/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_160/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_161/ Cretification_Request</t>
+  </si>
+  <si>
+    <t>TC_162/ Cretification_Request</t>
   </si>
 </sst>
 </file>
@@ -8871,14 +8871,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9190,27 +9183,27 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9222,35 +9215,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9268,7 +9261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9283,16 +9276,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9304,22 +9297,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9337,49 +9330,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9406,13 +9399,13 @@
     <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9424,92 +9417,92 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15784,7 +15777,7 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16161,8 +16154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9181F7-362A-42FA-8C19-F101E5CEA5C2}">
   <dimension ref="A1:M167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:M167"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16180,21 +16173,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
@@ -16258,7 +16251,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="91" t="s">
-        <v>933</v>
+        <v>771</v>
       </c>
       <c r="H4" s="91"/>
       <c r="I4" s="55"/>
@@ -16310,7 +16303,7 @@
     </row>
     <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>502</v>
+        <v>772</v>
       </c>
       <c r="B6" s="52">
         <v>10242</v>
@@ -16319,7 +16312,7 @@
         <v>43893</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>41</v>
@@ -16331,7 +16324,7 @@
       <c r="H6" s="52"/>
       <c r="I6" s="52"/>
       <c r="J6" s="52" t="s">
-        <v>588</v>
+        <v>502</v>
       </c>
       <c r="K6" s="52"/>
       <c r="L6" s="52"/>
@@ -16339,7 +16332,7 @@
     </row>
     <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>503</v>
+        <v>773</v>
       </c>
       <c r="B7" s="52">
         <v>10242</v>
@@ -16348,19 +16341,19 @@
         <v>43893</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>591</v>
+        <v>505</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>589</v>
+        <v>503</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>592</v>
+        <v>506</v>
       </c>
       <c r="G7" s="52"/>
       <c r="H7" s="52"/>
       <c r="I7" s="52"/>
       <c r="J7" s="52" t="s">
-        <v>593</v>
+        <v>507</v>
       </c>
       <c r="K7" s="52"/>
       <c r="L7" s="52"/>
@@ -16368,7 +16361,7 @@
     </row>
     <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>504</v>
+        <v>774</v>
       </c>
       <c r="B8" s="52">
         <v>10242</v>
@@ -16377,19 +16370,19 @@
         <v>43893</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>594</v>
+        <v>508</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>589</v>
+        <v>503</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>595</v>
+        <v>509</v>
       </c>
       <c r="G8" s="52"/>
       <c r="H8" s="52"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52" t="s">
-        <v>596</v>
+        <v>510</v>
       </c>
       <c r="K8" s="52"/>
       <c r="L8" s="52"/>
@@ -16397,7 +16390,7 @@
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>505</v>
+        <v>775</v>
       </c>
       <c r="B9" s="52">
         <v>10242</v>
@@ -16406,19 +16399,19 @@
         <v>43893</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>599</v>
+        <v>513</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>598</v>
+        <v>512</v>
       </c>
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52" t="s">
-        <v>600</v>
+        <v>514</v>
       </c>
       <c r="K9" s="52"/>
       <c r="L9" s="52"/>
@@ -16426,7 +16419,7 @@
     </row>
     <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
-        <v>506</v>
+        <v>776</v>
       </c>
       <c r="B10" s="52">
         <v>10242</v>
@@ -16435,19 +16428,19 @@
         <v>43893</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>599</v>
+        <v>513</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>602</v>
+        <v>516</v>
       </c>
       <c r="G10" s="52"/>
       <c r="H10" s="52"/>
       <c r="I10" s="52"/>
       <c r="J10" s="52" t="s">
-        <v>601</v>
+        <v>515</v>
       </c>
       <c r="K10" s="52"/>
       <c r="L10" s="52"/>
@@ -16455,7 +16448,7 @@
     </row>
     <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>507</v>
+        <v>777</v>
       </c>
       <c r="B11" s="52">
         <v>10242</v>
@@ -16464,19 +16457,19 @@
         <v>43893</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>653</v>
+        <v>564</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>654</v>
+        <v>565</v>
       </c>
       <c r="G11" s="52"/>
       <c r="H11" s="52"/>
       <c r="I11" s="52"/>
       <c r="J11" s="52" t="s">
-        <v>655</v>
+        <v>566</v>
       </c>
       <c r="K11" s="52"/>
       <c r="L11" s="52"/>
@@ -16484,7 +16477,7 @@
     </row>
     <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>508</v>
+        <v>778</v>
       </c>
       <c r="B12" s="52">
         <v>10242</v>
@@ -16493,19 +16486,19 @@
         <v>43893</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>603</v>
+        <v>517</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
       <c r="I12" s="52"/>
       <c r="J12" s="52" t="s">
-        <v>604</v>
+        <v>518</v>
       </c>
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
@@ -16513,7 +16506,7 @@
     </row>
     <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>509</v>
+        <v>779</v>
       </c>
       <c r="B13" s="52">
         <v>10242</v>
@@ -16522,19 +16515,19 @@
         <v>43893</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>658</v>
+        <v>569</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>656</v>
+        <v>567</v>
       </c>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
       <c r="I13" s="52"/>
       <c r="J13" s="52" t="s">
-        <v>655</v>
+        <v>566</v>
       </c>
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
@@ -16542,7 +16535,7 @@
     </row>
     <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>510</v>
+        <v>780</v>
       </c>
       <c r="B14" s="52">
         <v>10242</v>
@@ -16551,19 +16544,19 @@
         <v>43893</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>605</v>
+        <v>519</v>
       </c>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
       <c r="J14" s="52" t="s">
-        <v>606</v>
+        <v>520</v>
       </c>
       <c r="K14" s="52"/>
       <c r="L14" s="52"/>
@@ -16571,7 +16564,7 @@
     </row>
     <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>511</v>
+        <v>781</v>
       </c>
       <c r="B15" s="52">
         <v>10242</v>
@@ -16580,19 +16573,19 @@
         <v>43893</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>607</v>
+        <v>521</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
       <c r="J15" s="52" t="s">
-        <v>608</v>
+        <v>522</v>
       </c>
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
@@ -16600,7 +16593,7 @@
     </row>
     <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>512</v>
+        <v>782</v>
       </c>
       <c r="B16" s="52">
         <v>10242</v>
@@ -16609,21 +16602,21 @@
         <v>43893</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>620</v>
+        <v>534</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>621</v>
+        <v>535</v>
       </c>
       <c r="H16" s="63"/>
       <c r="I16" s="52"/>
       <c r="J16" s="52" t="s">
-        <v>609</v>
+        <v>523</v>
       </c>
       <c r="K16" s="52"/>
       <c r="L16" s="52"/>
@@ -16631,7 +16624,7 @@
     </row>
     <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>513</v>
+        <v>783</v>
       </c>
       <c r="B17" s="52">
         <v>10242</v>
@@ -16640,21 +16633,21 @@
         <v>43893</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>613</v>
+        <v>527</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>612</v>
+        <v>526</v>
       </c>
       <c r="H17" s="63"/>
       <c r="I17" s="52"/>
       <c r="J17" s="52" t="s">
-        <v>610</v>
+        <v>524</v>
       </c>
       <c r="K17" s="52"/>
       <c r="L17" s="52"/>
@@ -16662,7 +16655,7 @@
     </row>
     <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>514</v>
+        <v>784</v>
       </c>
       <c r="B18" s="52">
         <v>10242</v>
@@ -16671,21 +16664,21 @@
         <v>43893</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>622</v>
+        <v>536</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>612</v>
+        <v>526</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="52"/>
       <c r="J18" s="52" t="s">
-        <v>611</v>
+        <v>525</v>
       </c>
       <c r="K18" s="52"/>
       <c r="L18" s="52"/>
@@ -16693,7 +16686,7 @@
     </row>
     <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
-        <v>515</v>
+        <v>785</v>
       </c>
       <c r="B19" s="52">
         <v>10242</v>
@@ -16702,21 +16695,21 @@
         <v>43893</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>623</v>
+        <v>537</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>626</v>
+        <v>540</v>
       </c>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
       <c r="J19" s="52" t="s">
-        <v>609</v>
+        <v>523</v>
       </c>
       <c r="K19" s="52"/>
       <c r="L19" s="52"/>
@@ -16724,7 +16717,7 @@
     </row>
     <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
-        <v>516</v>
+        <v>786</v>
       </c>
       <c r="B20" s="52">
         <v>10242</v>
@@ -16733,21 +16726,21 @@
         <v>43893</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>624</v>
+        <v>538</v>
       </c>
       <c r="G20" s="52" t="s">
-        <v>614</v>
+        <v>528</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
       <c r="J20" s="52" t="s">
-        <v>611</v>
+        <v>525</v>
       </c>
       <c r="K20" s="52"/>
       <c r="L20" s="52"/>
@@ -16755,7 +16748,7 @@
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
-        <v>517</v>
+        <v>787</v>
       </c>
       <c r="B21" s="52">
         <v>10242</v>
@@ -16764,21 +16757,21 @@
         <v>43893</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F21" s="52" t="s">
-        <v>615</v>
+        <v>529</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>625</v>
+        <v>539</v>
       </c>
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
       <c r="J21" s="52" t="s">
-        <v>610</v>
+        <v>524</v>
       </c>
       <c r="K21" s="52"/>
       <c r="L21" s="52"/>
@@ -16786,7 +16779,7 @@
     </row>
     <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
-        <v>518</v>
+        <v>788</v>
       </c>
       <c r="B22" s="52">
         <v>10242</v>
@@ -16795,21 +16788,21 @@
         <v>43893</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>627</v>
+        <v>541</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>616</v>
+        <v>530</v>
       </c>
       <c r="H22" s="52"/>
       <c r="I22" s="52"/>
       <c r="J22" s="52" t="s">
-        <v>609</v>
+        <v>523</v>
       </c>
       <c r="K22" s="52"/>
       <c r="L22" s="52"/>
@@ -16817,7 +16810,7 @@
     </row>
     <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
-        <v>519</v>
+        <v>789</v>
       </c>
       <c r="B23" s="52">
         <v>10242</v>
@@ -16826,21 +16819,21 @@
         <v>43893</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>617</v>
+        <v>531</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>618</v>
+        <v>532</v>
       </c>
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
       <c r="J23" s="52" t="s">
-        <v>611</v>
+        <v>525</v>
       </c>
       <c r="K23" s="52"/>
       <c r="L23" s="52"/>
@@ -16848,7 +16841,7 @@
     </row>
     <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
-        <v>520</v>
+        <v>790</v>
       </c>
       <c r="B24" s="52">
         <v>10242</v>
@@ -16857,21 +16850,21 @@
         <v>43893</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>628</v>
+        <v>542</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>619</v>
+        <v>533</v>
       </c>
       <c r="H24" s="52"/>
       <c r="I24" s="52"/>
       <c r="J24" s="52" t="s">
-        <v>610</v>
+        <v>524</v>
       </c>
       <c r="K24" s="52"/>
       <c r="L24" s="52"/>
@@ -16879,7 +16872,7 @@
     </row>
     <row r="25" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
-        <v>521</v>
+        <v>791</v>
       </c>
       <c r="B25" s="52">
         <v>10242</v>
@@ -16888,21 +16881,21 @@
         <v>43893</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E25" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>617</v>
+        <v>531</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>828</v>
+        <v>710</v>
       </c>
       <c r="H25" s="52"/>
       <c r="I25" s="52"/>
       <c r="J25" s="52" t="s">
-        <v>829</v>
+        <v>711</v>
       </c>
       <c r="K25" s="52"/>
       <c r="L25" s="52"/>
@@ -16910,7 +16903,7 @@
     </row>
     <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
-        <v>522</v>
+        <v>792</v>
       </c>
       <c r="B26" s="52">
         <v>10242</v>
@@ -16919,19 +16912,19 @@
         <v>43893</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E26" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F26" s="52" t="s">
-        <v>629</v>
+        <v>543</v>
       </c>
       <c r="G26" s="52"/>
       <c r="H26" s="52"/>
       <c r="I26" s="52"/>
       <c r="J26" s="52" t="s">
-        <v>631</v>
+        <v>545</v>
       </c>
       <c r="K26" s="52"/>
       <c r="L26" s="52"/>
@@ -16939,7 +16932,7 @@
     </row>
     <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
-        <v>523</v>
+        <v>793</v>
       </c>
       <c r="B27" s="52">
         <v>10242</v>
@@ -16948,19 +16941,19 @@
         <v>43893</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>659</v>
+        <v>570</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F27" s="52" t="s">
-        <v>660</v>
+        <v>571</v>
       </c>
       <c r="G27" s="52"/>
       <c r="H27" s="52"/>
       <c r="I27" s="52"/>
       <c r="J27" s="52" t="s">
-        <v>655</v>
+        <v>566</v>
       </c>
       <c r="K27" s="52"/>
       <c r="L27" s="52"/>
@@ -16968,7 +16961,7 @@
     </row>
     <row r="28" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
-        <v>524</v>
+        <v>794</v>
       </c>
       <c r="B28" s="52">
         <v>10242</v>
@@ -16977,19 +16970,19 @@
         <v>43893</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F28" s="52" t="s">
-        <v>630</v>
+        <v>544</v>
       </c>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
       <c r="I28" s="52"/>
       <c r="J28" s="52" t="s">
-        <v>632</v>
+        <v>546</v>
       </c>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
@@ -16997,7 +16990,7 @@
     </row>
     <row r="29" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
-        <v>525</v>
+        <v>795</v>
       </c>
       <c r="B29" s="52">
         <v>10242</v>
@@ -17006,21 +16999,21 @@
         <v>43893</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E29" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F29" s="52" t="s">
-        <v>633</v>
+        <v>547</v>
       </c>
       <c r="G29" s="63" t="s">
-        <v>634</v>
+        <v>548</v>
       </c>
       <c r="H29" s="52"/>
       <c r="I29" s="52"/>
       <c r="J29" s="52" t="s">
-        <v>635</v>
+        <v>549</v>
       </c>
       <c r="K29" s="52"/>
       <c r="L29" s="52"/>
@@ -17028,7 +17021,7 @@
     </row>
     <row r="30" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>526</v>
+        <v>796</v>
       </c>
       <c r="B30" s="52">
         <v>10242</v>
@@ -17037,21 +17030,21 @@
         <v>43893</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F30" s="52" t="s">
-        <v>633</v>
+        <v>547</v>
       </c>
       <c r="G30" s="63" t="s">
-        <v>636</v>
+        <v>550</v>
       </c>
       <c r="H30" s="52"/>
       <c r="I30" s="52"/>
       <c r="J30" s="52" t="s">
-        <v>635</v>
+        <v>549</v>
       </c>
       <c r="K30" s="52"/>
       <c r="L30" s="52"/>
@@ -17059,7 +17052,7 @@
     </row>
     <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
-        <v>527</v>
+        <v>797</v>
       </c>
       <c r="B31" s="52">
         <v>10242</v>
@@ -17068,21 +17061,21 @@
         <v>43893</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>633</v>
+        <v>547</v>
       </c>
       <c r="G31" s="63" t="s">
-        <v>637</v>
+        <v>551</v>
       </c>
       <c r="H31" s="52"/>
       <c r="I31" s="52"/>
       <c r="J31" s="52" t="s">
-        <v>638</v>
+        <v>552</v>
       </c>
       <c r="K31" s="52"/>
       <c r="L31" s="52"/>
@@ -17090,7 +17083,7 @@
     </row>
     <row r="32" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
-        <v>528</v>
+        <v>798</v>
       </c>
       <c r="B32" s="52">
         <v>10242</v>
@@ -17099,21 +17092,21 @@
         <v>43893</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E32" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F32" s="52" t="s">
-        <v>633</v>
+        <v>547</v>
       </c>
       <c r="G32" s="63" t="s">
-        <v>639</v>
+        <v>553</v>
       </c>
       <c r="H32" s="52"/>
       <c r="I32" s="52"/>
       <c r="J32" s="52" t="s">
-        <v>635</v>
+        <v>549</v>
       </c>
       <c r="K32" s="52"/>
       <c r="L32" s="52"/>
@@ -17121,7 +17114,7 @@
     </row>
     <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
-        <v>529</v>
+        <v>799</v>
       </c>
       <c r="B33" s="52">
         <v>10242</v>
@@ -17130,21 +17123,21 @@
         <v>43893</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="E33" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F33" s="52" t="s">
-        <v>633</v>
+        <v>547</v>
       </c>
       <c r="G33" s="63" t="s">
-        <v>640</v>
+        <v>554</v>
       </c>
       <c r="H33" s="52"/>
       <c r="I33" s="52"/>
       <c r="J33" s="52" t="s">
-        <v>638</v>
+        <v>552</v>
       </c>
       <c r="K33" s="52"/>
       <c r="L33" s="52"/>
@@ -17152,7 +17145,7 @@
     </row>
     <row r="34" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
-        <v>530</v>
+        <v>800</v>
       </c>
       <c r="B34" s="52">
         <v>10242</v>
@@ -17161,19 +17154,19 @@
         <v>43893</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>641</v>
+        <v>555</v>
       </c>
       <c r="E34" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F34" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G34" s="52"/>
       <c r="H34" s="52"/>
       <c r="I34" s="52"/>
       <c r="J34" s="52" t="s">
-        <v>642</v>
+        <v>556</v>
       </c>
       <c r="K34" s="52"/>
       <c r="L34" s="52"/>
@@ -17181,7 +17174,7 @@
     </row>
     <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>531</v>
+        <v>801</v>
       </c>
       <c r="B35" s="52">
         <v>10242</v>
@@ -17190,17 +17183,17 @@
         <v>43893</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>644</v>
+        <v>558</v>
       </c>
       <c r="E35" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F35" s="52"/>
       <c r="G35" s="52"/>
       <c r="H35" s="52"/>
       <c r="I35" s="52"/>
       <c r="J35" s="52" t="s">
-        <v>645</v>
+        <v>559</v>
       </c>
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
@@ -17208,7 +17201,7 @@
     </row>
     <row r="36" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
-        <v>532</v>
+        <v>802</v>
       </c>
       <c r="B36" s="52">
         <v>10242</v>
@@ -17217,19 +17210,19 @@
         <v>43893</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>646</v>
+        <v>560</v>
       </c>
       <c r="E36" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F36" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G36" s="52"/>
       <c r="H36" s="52"/>
       <c r="I36" s="52"/>
       <c r="J36" s="52" t="s">
-        <v>647</v>
+        <v>561</v>
       </c>
       <c r="K36" s="52"/>
       <c r="L36" s="52"/>
@@ -17237,7 +17230,7 @@
     </row>
     <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
-        <v>533</v>
+        <v>803</v>
       </c>
       <c r="B37" s="52">
         <v>10242</v>
@@ -17246,17 +17239,17 @@
         <v>43893</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>648</v>
+        <v>562</v>
       </c>
       <c r="E37" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F37" s="52"/>
       <c r="G37" s="52"/>
       <c r="H37" s="52"/>
       <c r="I37" s="52"/>
       <c r="J37" s="52" t="s">
-        <v>649</v>
+        <v>563</v>
       </c>
       <c r="K37" s="52"/>
       <c r="L37" s="52"/>
@@ -17264,7 +17257,7 @@
     </row>
     <row r="38" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
-        <v>534</v>
+        <v>804</v>
       </c>
       <c r="B38" s="52">
         <v>10242</v>
@@ -17273,19 +17266,19 @@
         <v>43893</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>661</v>
+        <v>572</v>
       </c>
       <c r="E38" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F38" s="52" t="s">
-        <v>662</v>
+        <v>573</v>
       </c>
       <c r="G38" s="52"/>
       <c r="H38" s="52"/>
       <c r="I38" s="52"/>
       <c r="J38" s="52" t="s">
-        <v>663</v>
+        <v>574</v>
       </c>
       <c r="K38" s="52"/>
       <c r="L38" s="52"/>
@@ -17293,7 +17286,7 @@
     </row>
     <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
-        <v>535</v>
+        <v>805</v>
       </c>
       <c r="B39" s="52">
         <v>10242</v>
@@ -17302,19 +17295,19 @@
         <v>43893</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>665</v>
+        <v>576</v>
       </c>
       <c r="E39" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F39" s="52" t="s">
-        <v>664</v>
+        <v>575</v>
       </c>
       <c r="G39" s="52"/>
       <c r="H39" s="52"/>
       <c r="I39" s="52"/>
       <c r="J39" s="52" t="s">
-        <v>666</v>
+        <v>577</v>
       </c>
       <c r="K39" s="52"/>
       <c r="L39" s="52"/>
@@ -17322,7 +17315,7 @@
     </row>
     <row r="40" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="52" t="s">
-        <v>536</v>
+        <v>806</v>
       </c>
       <c r="B40" s="52">
         <v>10242</v>
@@ -17331,19 +17324,19 @@
         <v>43893</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>667</v>
+        <v>578</v>
       </c>
       <c r="E40" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F40" s="52" t="s">
-        <v>669</v>
+        <v>580</v>
       </c>
       <c r="G40" s="52"/>
       <c r="H40" s="52"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52" t="s">
-        <v>671</v>
+        <v>582</v>
       </c>
       <c r="K40" s="52"/>
       <c r="L40" s="52"/>
@@ -17351,7 +17344,7 @@
     </row>
     <row r="41" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="52" t="s">
-        <v>537</v>
+        <v>807</v>
       </c>
       <c r="B41" s="52">
         <v>10242</v>
@@ -17360,19 +17353,19 @@
         <v>43893</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>668</v>
+        <v>579</v>
       </c>
       <c r="E41" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F41" s="52" t="s">
-        <v>670</v>
+        <v>581</v>
       </c>
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52" t="s">
-        <v>666</v>
+        <v>577</v>
       </c>
       <c r="K41" s="52"/>
       <c r="L41" s="52"/>
@@ -17380,7 +17373,7 @@
     </row>
     <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="52" t="s">
-        <v>538</v>
+        <v>808</v>
       </c>
       <c r="B42" s="52">
         <v>10242</v>
@@ -17389,19 +17382,19 @@
         <v>43893</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>672</v>
+        <v>583</v>
       </c>
       <c r="E42" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F42" s="52" t="s">
-        <v>674</v>
+        <v>585</v>
       </c>
       <c r="G42" s="52"/>
       <c r="H42" s="52"/>
       <c r="I42" s="52"/>
       <c r="J42" s="52" t="s">
-        <v>675</v>
+        <v>586</v>
       </c>
       <c r="K42" s="52"/>
       <c r="L42" s="52"/>
@@ -17409,7 +17402,7 @@
     </row>
     <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>539</v>
+        <v>809</v>
       </c>
       <c r="B43" s="52">
         <v>10242</v>
@@ -17418,19 +17411,19 @@
         <v>43893</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>673</v>
+        <v>584</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>676</v>
+        <v>587</v>
       </c>
       <c r="G43" s="52"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52" t="s">
-        <v>666</v>
+        <v>577</v>
       </c>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
@@ -17438,7 +17431,7 @@
     </row>
     <row r="44" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="B44" s="52">
         <v>10242</v>
@@ -17447,19 +17440,19 @@
         <v>43893</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>677</v>
+        <v>588</v>
       </c>
       <c r="E44" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F44" s="52" t="s">
-        <v>679</v>
+        <v>590</v>
       </c>
       <c r="G44" s="52"/>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
       <c r="J44" s="52" t="s">
-        <v>681</v>
+        <v>592</v>
       </c>
       <c r="K44" s="52"/>
       <c r="L44" s="52"/>
@@ -17467,7 +17460,7 @@
     </row>
     <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="52" t="s">
-        <v>541</v>
+        <v>811</v>
       </c>
       <c r="B45" s="52">
         <v>10242</v>
@@ -17476,19 +17469,19 @@
         <v>43893</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>678</v>
+        <v>589</v>
       </c>
       <c r="E45" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F45" s="52" t="s">
-        <v>680</v>
+        <v>591</v>
       </c>
       <c r="G45" s="52"/>
       <c r="H45" s="52"/>
       <c r="I45" s="52"/>
       <c r="J45" s="52" t="s">
-        <v>666</v>
+        <v>577</v>
       </c>
       <c r="K45" s="52"/>
       <c r="L45" s="52"/>
@@ -17496,7 +17489,7 @@
     </row>
     <row r="46" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
-        <v>542</v>
+        <v>812</v>
       </c>
       <c r="B46" s="52">
         <v>10242</v>
@@ -17505,19 +17498,19 @@
         <v>43893</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>682</v>
+        <v>593</v>
       </c>
       <c r="E46" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F46" s="52" t="s">
-        <v>683</v>
+        <v>594</v>
       </c>
       <c r="G46" s="52"/>
       <c r="H46" s="52"/>
       <c r="I46" s="52"/>
       <c r="J46" s="52" t="s">
-        <v>681</v>
+        <v>592</v>
       </c>
       <c r="K46" s="52"/>
       <c r="L46" s="52"/>
@@ -17525,7 +17518,7 @@
     </row>
     <row r="47" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="52" t="s">
-        <v>543</v>
+        <v>813</v>
       </c>
       <c r="B47" s="52">
         <v>10242</v>
@@ -17534,21 +17527,21 @@
         <v>43893</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>684</v>
+        <v>595</v>
       </c>
       <c r="E47" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F47" s="52" t="s">
-        <v>685</v>
+        <v>596</v>
       </c>
       <c r="G47" s="63" t="s">
-        <v>686</v>
+        <v>597</v>
       </c>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
       <c r="J47" s="52" t="s">
-        <v>687</v>
+        <v>598</v>
       </c>
       <c r="K47" s="52"/>
       <c r="L47" s="52"/>
@@ -17556,7 +17549,7 @@
     </row>
     <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
-        <v>544</v>
+        <v>814</v>
       </c>
       <c r="B48" s="52">
         <v>10242</v>
@@ -17565,21 +17558,21 @@
         <v>43893</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>684</v>
+        <v>595</v>
       </c>
       <c r="E48" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F48" s="52" t="s">
-        <v>685</v>
+        <v>596</v>
       </c>
       <c r="G48" s="63" t="s">
-        <v>688</v>
+        <v>599</v>
       </c>
       <c r="H48" s="52"/>
       <c r="I48" s="52"/>
       <c r="J48" s="52" t="s">
-        <v>687</v>
+        <v>598</v>
       </c>
       <c r="K48" s="52"/>
       <c r="L48" s="52"/>
@@ -17587,7 +17580,7 @@
     </row>
     <row r="49" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="52" t="s">
-        <v>545</v>
+        <v>815</v>
       </c>
       <c r="B49" s="52">
         <v>10242</v>
@@ -17596,21 +17589,21 @@
         <v>43893</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>684</v>
+        <v>595</v>
       </c>
       <c r="E49" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F49" s="52" t="s">
-        <v>685</v>
+        <v>596</v>
       </c>
       <c r="G49" s="63" t="s">
-        <v>689</v>
+        <v>600</v>
       </c>
       <c r="H49" s="52"/>
       <c r="I49" s="52"/>
       <c r="J49" s="52" t="s">
-        <v>690</v>
+        <v>601</v>
       </c>
       <c r="K49" s="52"/>
       <c r="L49" s="52"/>
@@ -17618,7 +17611,7 @@
     </row>
     <row r="50" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
-        <v>546</v>
+        <v>816</v>
       </c>
       <c r="B50" s="52">
         <v>10242</v>
@@ -17627,19 +17620,19 @@
         <v>43893</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>691</v>
+        <v>602</v>
       </c>
       <c r="E50" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F50" s="52" t="s">
-        <v>692</v>
+        <v>603</v>
       </c>
       <c r="G50" s="52"/>
       <c r="H50" s="52"/>
       <c r="I50" s="52"/>
       <c r="J50" s="52" t="s">
-        <v>695</v>
+        <v>606</v>
       </c>
       <c r="K50" s="52"/>
       <c r="L50" s="52"/>
@@ -17647,7 +17640,7 @@
     </row>
     <row r="51" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="52" t="s">
-        <v>547</v>
+        <v>817</v>
       </c>
       <c r="B51" s="52">
         <v>10242</v>
@@ -17656,19 +17649,19 @@
         <v>43893</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>693</v>
+        <v>604</v>
       </c>
       <c r="E51" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>694</v>
+        <v>605</v>
       </c>
       <c r="G51" s="52"/>
       <c r="H51" s="52"/>
       <c r="I51" s="52"/>
       <c r="J51" s="52" t="s">
-        <v>666</v>
+        <v>577</v>
       </c>
       <c r="K51" s="52"/>
       <c r="L51" s="52"/>
@@ -17676,7 +17669,7 @@
     </row>
     <row r="52" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="52" t="s">
-        <v>548</v>
+        <v>818</v>
       </c>
       <c r="B52" s="52">
         <v>10242</v>
@@ -17685,19 +17678,19 @@
         <v>43893</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>696</v>
+        <v>607</v>
       </c>
       <c r="E52" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F52" s="52" t="s">
-        <v>697</v>
+        <v>608</v>
       </c>
       <c r="G52" s="52"/>
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
       <c r="J52" s="52" t="s">
-        <v>698</v>
+        <v>609</v>
       </c>
       <c r="K52" s="52"/>
       <c r="L52" s="52"/>
@@ -17705,7 +17698,7 @@
     </row>
     <row r="53" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="52" t="s">
-        <v>549</v>
+        <v>819</v>
       </c>
       <c r="B53" s="52">
         <v>10242</v>
@@ -17714,21 +17707,21 @@
         <v>43893</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="E53" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F53" s="52" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="G53" s="52" t="s">
-        <v>702</v>
+        <v>613</v>
       </c>
       <c r="H53" s="52"/>
       <c r="I53" s="52"/>
       <c r="J53" s="52" t="s">
-        <v>699</v>
+        <v>610</v>
       </c>
       <c r="K53" s="52"/>
       <c r="L53" s="52"/>
@@ -17736,7 +17729,7 @@
     </row>
     <row r="54" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="52" t="s">
-        <v>550</v>
+        <v>820</v>
       </c>
       <c r="B54" s="52">
         <v>10242</v>
@@ -17745,21 +17738,21 @@
         <v>43893</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="E54" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F54" s="52" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="G54" s="63" t="s">
-        <v>704</v>
+        <v>615</v>
       </c>
       <c r="H54" s="52"/>
       <c r="I54" s="52"/>
       <c r="J54" s="52" t="s">
-        <v>703</v>
+        <v>614</v>
       </c>
       <c r="K54" s="52"/>
       <c r="L54" s="52"/>
@@ -17767,7 +17760,7 @@
     </row>
     <row r="55" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="52" t="s">
-        <v>551</v>
+        <v>821</v>
       </c>
       <c r="B55" s="52">
         <v>10242</v>
@@ -17776,21 +17769,21 @@
         <v>43893</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="E55" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F55" s="52" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="G55" s="63" t="s">
-        <v>705</v>
+        <v>616</v>
       </c>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
       <c r="J55" s="52" t="s">
-        <v>703</v>
+        <v>614</v>
       </c>
       <c r="K55" s="52"/>
       <c r="L55" s="52"/>
@@ -17798,7 +17791,7 @@
     </row>
     <row r="56" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="52" t="s">
-        <v>552</v>
+        <v>822</v>
       </c>
       <c r="B56" s="52">
         <v>10242</v>
@@ -17807,21 +17800,21 @@
         <v>43893</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="E56" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F56" s="52" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="G56" s="63" t="s">
-        <v>706</v>
+        <v>617</v>
       </c>
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
       <c r="J56" s="52" t="s">
-        <v>707</v>
+        <v>618</v>
       </c>
       <c r="K56" s="52"/>
       <c r="L56" s="52"/>
@@ -17829,7 +17822,7 @@
     </row>
     <row r="57" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="52" t="s">
-        <v>553</v>
+        <v>823</v>
       </c>
       <c r="B57" s="52">
         <v>10242</v>
@@ -17838,21 +17831,21 @@
         <v>43893</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="E57" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F57" s="52" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="G57" s="63" t="s">
-        <v>708</v>
+        <v>619</v>
       </c>
       <c r="H57" s="52"/>
       <c r="I57" s="52"/>
       <c r="J57" s="52" t="s">
-        <v>709</v>
+        <v>620</v>
       </c>
       <c r="K57" s="52"/>
       <c r="L57" s="52"/>
@@ -17860,7 +17853,7 @@
     </row>
     <row r="58" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="52" t="s">
-        <v>554</v>
+        <v>824</v>
       </c>
       <c r="B58" s="52">
         <v>10242</v>
@@ -17869,21 +17862,21 @@
         <v>43893</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="E58" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F58" s="52" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="G58" s="63" t="s">
-        <v>710</v>
+        <v>621</v>
       </c>
       <c r="H58" s="52"/>
       <c r="I58" s="52"/>
       <c r="J58" s="52" t="s">
-        <v>711</v>
+        <v>622</v>
       </c>
       <c r="K58" s="52"/>
       <c r="L58" s="52"/>
@@ -17891,7 +17884,7 @@
     </row>
     <row r="59" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="52" t="s">
-        <v>555</v>
+        <v>825</v>
       </c>
       <c r="B59" s="52">
         <v>10242</v>
@@ -17900,19 +17893,19 @@
         <v>43893</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>712</v>
+        <v>623</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F59" s="52" t="s">
-        <v>713</v>
+        <v>624</v>
       </c>
       <c r="G59" s="52"/>
       <c r="H59" s="52"/>
       <c r="I59" s="52"/>
       <c r="J59" s="52" t="s">
-        <v>714</v>
+        <v>625</v>
       </c>
       <c r="K59" s="52"/>
       <c r="L59" s="52"/>
@@ -17920,7 +17913,7 @@
     </row>
     <row r="60" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="52" t="s">
-        <v>556</v>
+        <v>826</v>
       </c>
       <c r="B60" s="52">
         <v>10242</v>
@@ -17929,19 +17922,19 @@
         <v>43893</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>715</v>
+        <v>626</v>
       </c>
       <c r="E60" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F60" s="52" t="s">
-        <v>716</v>
+        <v>627</v>
       </c>
       <c r="G60" s="52"/>
       <c r="H60" s="52"/>
       <c r="I60" s="52"/>
       <c r="J60" s="52" t="s">
-        <v>666</v>
+        <v>577</v>
       </c>
       <c r="K60" s="52"/>
       <c r="L60" s="52"/>
@@ -17949,7 +17942,7 @@
     </row>
     <row r="61" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="52" t="s">
-        <v>557</v>
+        <v>827</v>
       </c>
       <c r="B61" s="52">
         <v>10242</v>
@@ -17958,19 +17951,19 @@
         <v>43893</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>717</v>
+        <v>628</v>
       </c>
       <c r="E61" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F61" s="52" t="s">
-        <v>718</v>
+        <v>629</v>
       </c>
       <c r="G61" s="52"/>
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
       <c r="J61" s="52" t="s">
-        <v>719</v>
+        <v>630</v>
       </c>
       <c r="K61" s="52"/>
       <c r="L61" s="52"/>
@@ -17978,7 +17971,7 @@
     </row>
     <row r="62" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="52" t="s">
-        <v>558</v>
+        <v>828</v>
       </c>
       <c r="B62" s="52">
         <v>10242</v>
@@ -17987,21 +17980,21 @@
         <v>43893</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>720</v>
+        <v>631</v>
       </c>
       <c r="E62" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F62" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G62" s="52" t="s">
-        <v>721</v>
+        <v>632</v>
       </c>
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
       <c r="J62" s="52" t="s">
-        <v>722</v>
+        <v>633</v>
       </c>
       <c r="K62" s="52"/>
       <c r="L62" s="52"/>
@@ -18009,7 +18002,7 @@
     </row>
     <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="52" t="s">
-        <v>559</v>
+        <v>829</v>
       </c>
       <c r="B63" s="52">
         <v>10242</v>
@@ -18018,21 +18011,21 @@
         <v>43893</v>
       </c>
       <c r="D63" s="52" t="s">
-        <v>720</v>
+        <v>631</v>
       </c>
       <c r="E63" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F63" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G63" s="52" t="s">
-        <v>723</v>
+        <v>634</v>
       </c>
       <c r="H63" s="52"/>
       <c r="I63" s="52"/>
       <c r="J63" s="52" t="s">
-        <v>724</v>
+        <v>635</v>
       </c>
       <c r="K63" s="52"/>
       <c r="L63" s="52"/>
@@ -18040,7 +18033,7 @@
     </row>
     <row r="64" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="52" t="s">
-        <v>560</v>
+        <v>830</v>
       </c>
       <c r="B64" s="52">
         <v>10242</v>
@@ -18049,21 +18042,21 @@
         <v>43893</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>720</v>
+        <v>631</v>
       </c>
       <c r="E64" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F64" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G64" s="52" t="s">
-        <v>725</v>
+        <v>636</v>
       </c>
       <c r="H64" s="52"/>
       <c r="I64" s="52"/>
       <c r="J64" s="52" t="s">
-        <v>726</v>
+        <v>637</v>
       </c>
       <c r="K64" s="52"/>
       <c r="L64" s="52"/>
@@ -18071,7 +18064,7 @@
     </row>
     <row r="65" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="52" t="s">
-        <v>561</v>
+        <v>831</v>
       </c>
       <c r="B65" s="52">
         <v>10242</v>
@@ -18080,19 +18073,19 @@
         <v>43893</v>
       </c>
       <c r="D65" s="52" t="s">
-        <v>727</v>
+        <v>638</v>
       </c>
       <c r="E65" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F65" s="52" t="s">
-        <v>728</v>
+        <v>639</v>
       </c>
       <c r="G65" s="52"/>
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
       <c r="J65" s="52" t="s">
-        <v>729</v>
+        <v>640</v>
       </c>
       <c r="K65" s="52"/>
       <c r="L65" s="52"/>
@@ -18100,7 +18093,7 @@
     </row>
     <row r="66" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="52" t="s">
-        <v>562</v>
+        <v>832</v>
       </c>
       <c r="B66" s="52">
         <v>10242</v>
@@ -18109,19 +18102,19 @@
         <v>43893</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>730</v>
+        <v>641</v>
       </c>
       <c r="E66" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F66" s="52" t="s">
-        <v>731</v>
+        <v>642</v>
       </c>
       <c r="G66" s="52"/>
       <c r="H66" s="52"/>
       <c r="I66" s="52"/>
       <c r="J66" s="52" t="s">
-        <v>666</v>
+        <v>577</v>
       </c>
       <c r="K66" s="52"/>
       <c r="L66" s="52"/>
@@ -18129,7 +18122,7 @@
     </row>
     <row r="67" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="52" t="s">
-        <v>563</v>
+        <v>833</v>
       </c>
       <c r="B67" s="52">
         <v>10242</v>
@@ -18138,19 +18131,19 @@
         <v>43893</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>732</v>
+        <v>643</v>
       </c>
       <c r="E67" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F67" s="52" t="s">
-        <v>733</v>
+        <v>644</v>
       </c>
       <c r="G67" s="52"/>
       <c r="H67" s="52"/>
       <c r="I67" s="52"/>
       <c r="J67" s="52" t="s">
-        <v>734</v>
+        <v>645</v>
       </c>
       <c r="K67" s="52"/>
       <c r="L67" s="52"/>
@@ -18158,7 +18151,7 @@
     </row>
     <row r="68" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="52" t="s">
-        <v>564</v>
+        <v>834</v>
       </c>
       <c r="B68" s="52">
         <v>10242</v>
@@ -18167,21 +18160,21 @@
         <v>43893</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>735</v>
+        <v>646</v>
       </c>
       <c r="E68" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F68" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G68" s="52" t="s">
-        <v>736</v>
+        <v>647</v>
       </c>
       <c r="H68" s="52"/>
       <c r="I68" s="52"/>
       <c r="J68" s="52" t="s">
-        <v>737</v>
+        <v>648</v>
       </c>
       <c r="K68" s="52"/>
       <c r="L68" s="52"/>
@@ -18189,7 +18182,7 @@
     </row>
     <row r="69" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="52" t="s">
-        <v>565</v>
+        <v>835</v>
       </c>
       <c r="B69" s="52">
         <v>10242</v>
@@ -18198,21 +18191,21 @@
         <v>43893</v>
       </c>
       <c r="D69" s="52" t="s">
-        <v>735</v>
+        <v>646</v>
       </c>
       <c r="E69" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F69" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G69" s="52" t="s">
-        <v>738</v>
+        <v>649</v>
       </c>
       <c r="H69" s="52"/>
       <c r="I69" s="52"/>
       <c r="J69" s="52" t="s">
-        <v>739</v>
+        <v>650</v>
       </c>
       <c r="K69" s="52"/>
       <c r="L69" s="52"/>
@@ -18220,7 +18213,7 @@
     </row>
     <row r="70" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="52" t="s">
-        <v>566</v>
+        <v>836</v>
       </c>
       <c r="B70" s="52">
         <v>10242</v>
@@ -18229,21 +18222,21 @@
         <v>43893</v>
       </c>
       <c r="D70" s="52" t="s">
-        <v>735</v>
+        <v>646</v>
       </c>
       <c r="E70" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F70" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G70" s="52" t="s">
-        <v>740</v>
+        <v>651</v>
       </c>
       <c r="H70" s="52"/>
       <c r="I70" s="52"/>
       <c r="J70" s="52" t="s">
-        <v>741</v>
+        <v>652</v>
       </c>
       <c r="K70" s="52"/>
       <c r="L70" s="52"/>
@@ -18251,7 +18244,7 @@
     </row>
     <row r="71" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
-        <v>567</v>
+        <v>837</v>
       </c>
       <c r="B71" s="52">
         <v>10242</v>
@@ -18260,19 +18253,19 @@
         <v>43893</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>742</v>
+        <v>653</v>
       </c>
       <c r="E71" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F71" s="52" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="G71" s="52"/>
       <c r="H71" s="52"/>
       <c r="I71" s="52"/>
       <c r="J71" s="52" t="s">
-        <v>744</v>
+        <v>655</v>
       </c>
       <c r="K71" s="52"/>
       <c r="L71" s="52"/>
@@ -18280,7 +18273,7 @@
     </row>
     <row r="72" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="52" t="s">
-        <v>568</v>
+        <v>838</v>
       </c>
       <c r="B72" s="52">
         <v>10242</v>
@@ -18289,19 +18282,19 @@
         <v>43893</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>745</v>
+        <v>656</v>
       </c>
       <c r="E72" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="F72" s="52" t="s">
         <v>657</v>
-      </c>
-      <c r="F72" s="52" t="s">
-        <v>746</v>
       </c>
       <c r="G72" s="52"/>
       <c r="H72" s="52"/>
       <c r="I72" s="52"/>
       <c r="J72" s="52" t="s">
-        <v>666</v>
+        <v>577</v>
       </c>
       <c r="K72" s="52"/>
       <c r="L72" s="52"/>
@@ -18309,7 +18302,7 @@
     </row>
     <row r="73" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="52" t="s">
-        <v>569</v>
+        <v>839</v>
       </c>
       <c r="B73" s="52">
         <v>10242</v>
@@ -18318,19 +18311,19 @@
         <v>43893</v>
       </c>
       <c r="D73" s="52" t="s">
-        <v>747</v>
+        <v>658</v>
       </c>
       <c r="E73" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F73" s="52" t="s">
-        <v>748</v>
+        <v>659</v>
       </c>
       <c r="G73" s="52"/>
       <c r="H73" s="52"/>
       <c r="I73" s="52"/>
       <c r="J73" s="52" t="s">
-        <v>749</v>
+        <v>660</v>
       </c>
       <c r="K73" s="52"/>
       <c r="L73" s="52"/>
@@ -18338,7 +18331,7 @@
     </row>
     <row r="74" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="52" t="s">
-        <v>570</v>
+        <v>840</v>
       </c>
       <c r="B74" s="52">
         <v>10242</v>
@@ -18347,21 +18340,21 @@
         <v>43893</v>
       </c>
       <c r="D74" s="52" t="s">
-        <v>750</v>
+        <v>661</v>
       </c>
       <c r="E74" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F74" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G74" s="52" t="s">
-        <v>751</v>
+        <v>662</v>
       </c>
       <c r="H74" s="52"/>
       <c r="I74" s="52"/>
       <c r="J74" s="52" t="s">
-        <v>754</v>
+        <v>665</v>
       </c>
       <c r="K74" s="52"/>
       <c r="L74" s="52"/>
@@ -18369,7 +18362,7 @@
     </row>
     <row r="75" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="52" t="s">
-        <v>571</v>
+        <v>841</v>
       </c>
       <c r="B75" s="52">
         <v>10242</v>
@@ -18378,21 +18371,21 @@
         <v>43893</v>
       </c>
       <c r="D75" s="52" t="s">
-        <v>750</v>
+        <v>661</v>
       </c>
       <c r="E75" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F75" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G75" s="52" t="s">
-        <v>752</v>
+        <v>663</v>
       </c>
       <c r="H75" s="52"/>
       <c r="I75" s="52"/>
       <c r="J75" s="52" t="s">
-        <v>755</v>
+        <v>666</v>
       </c>
       <c r="K75" s="52"/>
       <c r="L75" s="52"/>
@@ -18400,7 +18393,7 @@
     </row>
     <row r="76" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="52" t="s">
-        <v>572</v>
+        <v>842</v>
       </c>
       <c r="B76" s="52">
         <v>10242</v>
@@ -18409,21 +18402,21 @@
         <v>43893</v>
       </c>
       <c r="D76" s="52" t="s">
-        <v>750</v>
+        <v>661</v>
       </c>
       <c r="E76" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F76" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G76" s="52" t="s">
-        <v>753</v>
+        <v>664</v>
       </c>
       <c r="H76" s="52"/>
       <c r="I76" s="52"/>
       <c r="J76" s="52" t="s">
-        <v>754</v>
+        <v>665</v>
       </c>
       <c r="K76" s="52"/>
       <c r="L76" s="52"/>
@@ -18431,7 +18424,7 @@
     </row>
     <row r="77" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="52" t="s">
-        <v>573</v>
+        <v>843</v>
       </c>
       <c r="B77" s="52">
         <v>10242</v>
@@ -18440,21 +18433,21 @@
         <v>43893</v>
       </c>
       <c r="D77" s="52" t="s">
-        <v>750</v>
+        <v>661</v>
       </c>
       <c r="E77" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F77" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G77" s="52" t="s">
-        <v>756</v>
+        <v>667</v>
       </c>
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
       <c r="J77" s="52" t="s">
-        <v>757</v>
+        <v>668</v>
       </c>
       <c r="K77" s="52"/>
       <c r="L77" s="52"/>
@@ -18462,7 +18455,7 @@
     </row>
     <row r="78" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="52" t="s">
-        <v>574</v>
+        <v>844</v>
       </c>
       <c r="B78" s="52">
         <v>10242</v>
@@ -18471,21 +18464,21 @@
         <v>43893</v>
       </c>
       <c r="D78" s="52" t="s">
-        <v>750</v>
+        <v>661</v>
       </c>
       <c r="E78" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F78" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G78" s="52" t="s">
-        <v>758</v>
+        <v>669</v>
       </c>
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
       <c r="J78" s="52" t="s">
-        <v>759</v>
+        <v>670</v>
       </c>
       <c r="K78" s="52"/>
       <c r="L78" s="52"/>
@@ -18493,7 +18486,7 @@
     </row>
     <row r="79" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="52" t="s">
-        <v>575</v>
+        <v>845</v>
       </c>
       <c r="B79" s="52">
         <v>10242</v>
@@ -18502,19 +18495,19 @@
         <v>43893</v>
       </c>
       <c r="D79" s="52" t="s">
-        <v>760</v>
+        <v>671</v>
       </c>
       <c r="E79" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F79" s="52" t="s">
-        <v>761</v>
+        <v>672</v>
       </c>
       <c r="G79" s="52"/>
       <c r="H79" s="52"/>
       <c r="I79" s="52"/>
       <c r="J79" s="52" t="s">
-        <v>762</v>
+        <v>673</v>
       </c>
       <c r="K79" s="52"/>
       <c r="L79" s="52"/>
@@ -18522,7 +18515,7 @@
     </row>
     <row r="80" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="52" t="s">
-        <v>576</v>
+        <v>846</v>
       </c>
       <c r="B80" s="52">
         <v>10242</v>
@@ -18531,21 +18524,21 @@
         <v>43893</v>
       </c>
       <c r="D80" s="52" t="s">
-        <v>763</v>
+        <v>674</v>
       </c>
       <c r="E80" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F80" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G80" s="52" t="s">
-        <v>764</v>
+        <v>675</v>
       </c>
       <c r="H80" s="52"/>
       <c r="I80" s="52"/>
       <c r="J80" s="52" t="s">
-        <v>765</v>
+        <v>676</v>
       </c>
       <c r="K80" s="52"/>
       <c r="L80" s="52"/>
@@ -18553,7 +18546,7 @@
     </row>
     <row r="81" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="52" t="s">
-        <v>577</v>
+        <v>847</v>
       </c>
       <c r="B81" s="52">
         <v>10242</v>
@@ -18562,21 +18555,21 @@
         <v>43893</v>
       </c>
       <c r="D81" s="52" t="s">
-        <v>763</v>
+        <v>674</v>
       </c>
       <c r="E81" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F81" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G81" s="52" t="s">
-        <v>766</v>
+        <v>677</v>
       </c>
       <c r="H81" s="52"/>
       <c r="I81" s="52"/>
       <c r="J81" s="52" t="s">
-        <v>767</v>
+        <v>678</v>
       </c>
       <c r="K81" s="52"/>
       <c r="L81" s="52"/>
@@ -18584,7 +18577,7 @@
     </row>
     <row r="82" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="52" t="s">
-        <v>578</v>
+        <v>848</v>
       </c>
       <c r="B82" s="52">
         <v>10242</v>
@@ -18593,21 +18586,21 @@
         <v>43893</v>
       </c>
       <c r="D82" s="52" t="s">
-        <v>768</v>
+        <v>679</v>
       </c>
       <c r="E82" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F82" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G82" s="52" t="s">
-        <v>769</v>
+        <v>680</v>
       </c>
       <c r="H82" s="52"/>
       <c r="I82" s="52"/>
       <c r="J82" s="52" t="s">
-        <v>770</v>
+        <v>681</v>
       </c>
       <c r="K82" s="52"/>
       <c r="L82" s="52"/>
@@ -18615,7 +18608,7 @@
     </row>
     <row r="83" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="52" t="s">
-        <v>579</v>
+        <v>849</v>
       </c>
       <c r="B83" s="52">
         <v>10242</v>
@@ -18624,21 +18617,21 @@
         <v>43893</v>
       </c>
       <c r="D83" s="52" t="s">
-        <v>768</v>
+        <v>679</v>
       </c>
       <c r="E83" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F83" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G83" s="52" t="s">
-        <v>771</v>
+        <v>682</v>
       </c>
       <c r="H83" s="52"/>
       <c r="I83" s="52"/>
       <c r="J83" s="52" t="s">
-        <v>772</v>
+        <v>683</v>
       </c>
       <c r="K83" s="52"/>
       <c r="L83" s="52"/>
@@ -18646,7 +18639,7 @@
     </row>
     <row r="84" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="52" t="s">
-        <v>580</v>
+        <v>850</v>
       </c>
       <c r="B84" s="52">
         <v>10242</v>
@@ -18655,21 +18648,21 @@
         <v>43893</v>
       </c>
       <c r="D84" s="52" t="s">
-        <v>773</v>
+        <v>684</v>
       </c>
       <c r="E84" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F84" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G84" s="52" t="s">
-        <v>774</v>
+        <v>685</v>
       </c>
       <c r="H84" s="52"/>
       <c r="I84" s="52"/>
       <c r="J84" s="52" t="s">
-        <v>770</v>
+        <v>681</v>
       </c>
       <c r="K84" s="52"/>
       <c r="L84" s="52"/>
@@ -18677,7 +18670,7 @@
     </row>
     <row r="85" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="52" t="s">
-        <v>581</v>
+        <v>851</v>
       </c>
       <c r="B85" s="52">
         <v>10242</v>
@@ -18686,21 +18679,21 @@
         <v>43893</v>
       </c>
       <c r="D85" s="52" t="s">
-        <v>773</v>
+        <v>684</v>
       </c>
       <c r="E85" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F85" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G85" s="52" t="s">
-        <v>775</v>
+        <v>686</v>
       </c>
       <c r="H85" s="52"/>
       <c r="I85" s="52"/>
       <c r="J85" s="52" t="s">
-        <v>772</v>
+        <v>683</v>
       </c>
       <c r="K85" s="52"/>
       <c r="L85" s="52"/>
@@ -18708,7 +18701,7 @@
     </row>
     <row r="86" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="52" t="s">
-        <v>582</v>
+        <v>852</v>
       </c>
       <c r="B86" s="52">
         <v>10242</v>
@@ -18717,21 +18710,21 @@
         <v>43893</v>
       </c>
       <c r="D86" s="52" t="s">
-        <v>776</v>
+        <v>687</v>
       </c>
       <c r="E86" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F86" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G86" s="52" t="s">
-        <v>777</v>
+        <v>688</v>
       </c>
       <c r="H86" s="52"/>
       <c r="I86" s="52"/>
       <c r="J86" s="52" t="s">
-        <v>770</v>
+        <v>681</v>
       </c>
       <c r="K86" s="52"/>
       <c r="L86" s="52"/>
@@ -18739,7 +18732,7 @@
     </row>
     <row r="87" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="52" t="s">
-        <v>583</v>
+        <v>853</v>
       </c>
       <c r="B87" s="52">
         <v>10242</v>
@@ -18748,21 +18741,21 @@
         <v>43893</v>
       </c>
       <c r="D87" s="52" t="s">
-        <v>776</v>
+        <v>687</v>
       </c>
       <c r="E87" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F87" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G87" s="52" t="s">
-        <v>778</v>
+        <v>689</v>
       </c>
       <c r="H87" s="52"/>
       <c r="I87" s="52"/>
       <c r="J87" s="52" t="s">
-        <v>772</v>
+        <v>683</v>
       </c>
       <c r="K87" s="52"/>
       <c r="L87" s="52"/>
@@ -18770,7 +18763,7 @@
     </row>
     <row r="88" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="52" t="s">
-        <v>584</v>
+        <v>854</v>
       </c>
       <c r="B88" s="52">
         <v>10242</v>
@@ -18779,21 +18772,21 @@
         <v>43893</v>
       </c>
       <c r="D88" s="52" t="s">
-        <v>779</v>
+        <v>690</v>
       </c>
       <c r="E88" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F88" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G88" s="52" t="s">
-        <v>780</v>
+        <v>691</v>
       </c>
       <c r="H88" s="52"/>
       <c r="I88" s="52"/>
       <c r="J88" s="52" t="s">
-        <v>770</v>
+        <v>681</v>
       </c>
       <c r="K88" s="52"/>
       <c r="L88" s="52"/>
@@ -18801,7 +18794,7 @@
     </row>
     <row r="89" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="52" t="s">
-        <v>585</v>
+        <v>855</v>
       </c>
       <c r="B89" s="52">
         <v>10242</v>
@@ -18810,21 +18803,21 @@
         <v>43893</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>779</v>
+        <v>690</v>
       </c>
       <c r="E89" s="52" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="F89" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G89" s="52" t="s">
-        <v>781</v>
+        <v>692</v>
       </c>
       <c r="H89" s="52"/>
       <c r="I89" s="52"/>
       <c r="J89" s="52" t="s">
-        <v>772</v>
+        <v>683</v>
       </c>
       <c r="K89" s="52"/>
       <c r="L89" s="52"/>
@@ -18832,7 +18825,7 @@
     </row>
     <row r="90" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="52" t="s">
-        <v>586</v>
+        <v>856</v>
       </c>
       <c r="B90" s="52">
         <v>10242</v>
@@ -18841,21 +18834,21 @@
         <v>43893</v>
       </c>
       <c r="D90" s="52" t="s">
-        <v>782</v>
+        <v>693</v>
       </c>
       <c r="E90" s="52" t="s">
-        <v>589</v>
+        <v>503</v>
       </c>
       <c r="F90" s="52" t="s">
-        <v>783</v>
+        <v>694</v>
       </c>
       <c r="G90" s="52" t="s">
-        <v>784</v>
+        <v>695</v>
       </c>
       <c r="H90" s="52"/>
       <c r="I90" s="52"/>
       <c r="J90" s="52" t="s">
-        <v>785</v>
+        <v>696</v>
       </c>
       <c r="K90" s="52"/>
       <c r="L90" s="52"/>
@@ -18863,7 +18856,7 @@
     </row>
     <row r="91" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="52" t="s">
-        <v>587</v>
+        <v>857</v>
       </c>
       <c r="B91" s="52">
         <v>10242</v>
@@ -18872,21 +18865,21 @@
         <v>43893</v>
       </c>
       <c r="D91" s="52" t="s">
-        <v>786</v>
+        <v>697</v>
       </c>
       <c r="E91" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F91" s="52" t="s">
-        <v>654</v>
+        <v>565</v>
       </c>
       <c r="G91" s="52" t="s">
-        <v>788</v>
+        <v>699</v>
       </c>
       <c r="H91" s="52"/>
       <c r="I91" s="52"/>
       <c r="J91" s="52" t="s">
-        <v>789</v>
+        <v>700</v>
       </c>
       <c r="K91" s="52"/>
       <c r="L91" s="52"/>
@@ -18894,7 +18887,7 @@
     </row>
     <row r="92" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="52" t="s">
-        <v>650</v>
+        <v>858</v>
       </c>
       <c r="B92" s="52">
         <v>10242</v>
@@ -18903,21 +18896,21 @@
         <v>43893</v>
       </c>
       <c r="D92" s="52" t="s">
-        <v>786</v>
+        <v>697</v>
       </c>
       <c r="E92" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F92" s="52" t="s">
-        <v>654</v>
+        <v>565</v>
       </c>
       <c r="G92" s="63" t="s">
-        <v>799</v>
+        <v>708</v>
       </c>
       <c r="H92" s="52"/>
       <c r="I92" s="52"/>
       <c r="J92" s="52" t="s">
-        <v>800</v>
+        <v>709</v>
       </c>
       <c r="K92" s="52"/>
       <c r="L92" s="52"/>
@@ -18925,7 +18918,7 @@
     </row>
     <row r="93" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="52" t="s">
-        <v>651</v>
+        <v>859</v>
       </c>
       <c r="B93" s="52">
         <v>10242</v>
@@ -18934,21 +18927,21 @@
         <v>43893</v>
       </c>
       <c r="D93" s="52" t="s">
-        <v>790</v>
+        <v>701</v>
       </c>
       <c r="E93" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F93" s="52" t="s">
-        <v>656</v>
+        <v>567</v>
       </c>
       <c r="G93" s="52" t="s">
-        <v>791</v>
+        <v>702</v>
       </c>
       <c r="H93" s="52"/>
       <c r="I93" s="52"/>
       <c r="J93" s="52" t="s">
-        <v>792</v>
+        <v>703</v>
       </c>
       <c r="K93" s="52"/>
       <c r="L93" s="52"/>
@@ -18956,7 +18949,7 @@
     </row>
     <row r="94" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="52" t="s">
-        <v>652</v>
+        <v>860</v>
       </c>
       <c r="B94" s="52">
         <v>10242</v>
@@ -18965,21 +18958,21 @@
         <v>43893</v>
       </c>
       <c r="D94" s="52" t="s">
-        <v>790</v>
+        <v>701</v>
       </c>
       <c r="E94" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F94" s="52" t="s">
-        <v>656</v>
+        <v>567</v>
       </c>
       <c r="G94" s="63" t="s">
-        <v>799</v>
+        <v>708</v>
       </c>
       <c r="H94" s="52"/>
       <c r="I94" s="52"/>
       <c r="J94" s="52" t="s">
-        <v>800</v>
+        <v>709</v>
       </c>
       <c r="K94" s="52"/>
       <c r="L94" s="52"/>
@@ -18987,7 +18980,7 @@
     </row>
     <row r="95" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="52" t="s">
-        <v>797</v>
+        <v>861</v>
       </c>
       <c r="B95" s="52">
         <v>10242</v>
@@ -18996,21 +18989,21 @@
         <v>43893</v>
       </c>
       <c r="D95" s="52" t="s">
-        <v>793</v>
+        <v>704</v>
       </c>
       <c r="E95" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F95" s="52" t="s">
-        <v>794</v>
+        <v>705</v>
       </c>
       <c r="G95" s="52" t="s">
-        <v>795</v>
+        <v>706</v>
       </c>
       <c r="H95" s="52"/>
       <c r="I95" s="52"/>
       <c r="J95" s="52" t="s">
-        <v>796</v>
+        <v>707</v>
       </c>
       <c r="K95" s="52"/>
       <c r="L95" s="52"/>
@@ -19018,7 +19011,7 @@
     </row>
     <row r="96" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="52" t="s">
-        <v>798</v>
+        <v>862</v>
       </c>
       <c r="B96" s="52">
         <v>10242</v>
@@ -19027,21 +19020,21 @@
         <v>43893</v>
       </c>
       <c r="D96" s="52" t="s">
-        <v>793</v>
+        <v>704</v>
       </c>
       <c r="E96" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F96" s="52" t="s">
-        <v>794</v>
+        <v>705</v>
       </c>
       <c r="G96" s="63" t="s">
-        <v>799</v>
+        <v>708</v>
       </c>
       <c r="H96" s="52"/>
       <c r="I96" s="52"/>
       <c r="J96" s="52" t="s">
-        <v>800</v>
+        <v>709</v>
       </c>
       <c r="K96" s="52"/>
       <c r="L96" s="52"/>
@@ -19049,7 +19042,7 @@
     </row>
     <row r="97" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="52" t="s">
-        <v>801</v>
+        <v>863</v>
       </c>
       <c r="B97" s="52">
         <v>10242</v>
@@ -19058,19 +19051,19 @@
         <v>43893</v>
       </c>
       <c r="D97" s="52" t="s">
-        <v>830</v>
+        <v>712</v>
       </c>
       <c r="E97" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F97" s="52" t="s">
-        <v>607</v>
+        <v>521</v>
       </c>
       <c r="G97" s="52"/>
       <c r="H97" s="52"/>
       <c r="I97" s="52"/>
       <c r="J97" s="52" t="s">
-        <v>608</v>
+        <v>522</v>
       </c>
       <c r="K97" s="52"/>
       <c r="L97" s="52"/>
@@ -19078,7 +19071,7 @@
     </row>
     <row r="98" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="52" t="s">
-        <v>802</v>
+        <v>864</v>
       </c>
       <c r="B98" s="52">
         <v>10242</v>
@@ -19087,21 +19080,21 @@
         <v>43893</v>
       </c>
       <c r="D98" s="52" t="s">
-        <v>830</v>
+        <v>712</v>
       </c>
       <c r="E98" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F98" s="52" t="s">
-        <v>620</v>
+        <v>534</v>
       </c>
       <c r="G98" s="52" t="s">
-        <v>621</v>
+        <v>535</v>
       </c>
       <c r="H98" s="63"/>
       <c r="I98" s="52"/>
       <c r="J98" s="52" t="s">
-        <v>609</v>
+        <v>523</v>
       </c>
       <c r="K98" s="52"/>
       <c r="L98" s="52"/>
@@ -19109,7 +19102,7 @@
     </row>
     <row r="99" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="52" t="s">
-        <v>803</v>
+        <v>865</v>
       </c>
       <c r="B99" s="52">
         <v>10242</v>
@@ -19118,21 +19111,21 @@
         <v>43893</v>
       </c>
       <c r="D99" s="52" t="s">
-        <v>830</v>
+        <v>712</v>
       </c>
       <c r="E99" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F99" s="52" t="s">
-        <v>613</v>
+        <v>527</v>
       </c>
       <c r="G99" s="52" t="s">
-        <v>612</v>
+        <v>526</v>
       </c>
       <c r="H99" s="63"/>
       <c r="I99" s="52"/>
       <c r="J99" s="52" t="s">
-        <v>610</v>
+        <v>524</v>
       </c>
       <c r="K99" s="52"/>
       <c r="L99" s="52"/>
@@ -19140,7 +19133,7 @@
     </row>
     <row r="100" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="52" t="s">
-        <v>804</v>
+        <v>866</v>
       </c>
       <c r="B100" s="52">
         <v>10242</v>
@@ -19149,21 +19142,21 @@
         <v>43893</v>
       </c>
       <c r="D100" s="52" t="s">
-        <v>830</v>
+        <v>712</v>
       </c>
       <c r="E100" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F100" s="52" t="s">
-        <v>622</v>
+        <v>536</v>
       </c>
       <c r="G100" s="52" t="s">
-        <v>612</v>
+        <v>526</v>
       </c>
       <c r="H100" s="52"/>
       <c r="I100" s="52"/>
       <c r="J100" s="52" t="s">
-        <v>611</v>
+        <v>525</v>
       </c>
       <c r="K100" s="52"/>
       <c r="L100" s="52"/>
@@ -19171,7 +19164,7 @@
     </row>
     <row r="101" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="52" t="s">
-        <v>805</v>
+        <v>867</v>
       </c>
       <c r="B101" s="52">
         <v>10242</v>
@@ -19180,21 +19173,21 @@
         <v>43893</v>
       </c>
       <c r="D101" s="52" t="s">
-        <v>830</v>
+        <v>712</v>
       </c>
       <c r="E101" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F101" s="52" t="s">
-        <v>623</v>
+        <v>537</v>
       </c>
       <c r="G101" s="52" t="s">
-        <v>626</v>
+        <v>540</v>
       </c>
       <c r="H101" s="52"/>
       <c r="I101" s="52"/>
       <c r="J101" s="52" t="s">
-        <v>609</v>
+        <v>523</v>
       </c>
       <c r="K101" s="52"/>
       <c r="L101" s="52"/>
@@ -19202,7 +19195,7 @@
     </row>
     <row r="102" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="52" t="s">
-        <v>806</v>
+        <v>868</v>
       </c>
       <c r="B102" s="52">
         <v>10242</v>
@@ -19211,21 +19204,21 @@
         <v>43893</v>
       </c>
       <c r="D102" s="52" t="s">
-        <v>830</v>
+        <v>712</v>
       </c>
       <c r="E102" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F102" s="52" t="s">
-        <v>624</v>
+        <v>538</v>
       </c>
       <c r="G102" s="52" t="s">
-        <v>614</v>
+        <v>528</v>
       </c>
       <c r="H102" s="52"/>
       <c r="I102" s="52"/>
       <c r="J102" s="52" t="s">
-        <v>611</v>
+        <v>525</v>
       </c>
       <c r="K102" s="52"/>
       <c r="L102" s="52"/>
@@ -19233,7 +19226,7 @@
     </row>
     <row r="103" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="52" t="s">
-        <v>807</v>
+        <v>869</v>
       </c>
       <c r="B103" s="52">
         <v>10242</v>
@@ -19242,21 +19235,21 @@
         <v>43893</v>
       </c>
       <c r="D103" s="52" t="s">
-        <v>830</v>
+        <v>712</v>
       </c>
       <c r="E103" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F103" s="52" t="s">
-        <v>615</v>
+        <v>529</v>
       </c>
       <c r="G103" s="52" t="s">
-        <v>625</v>
+        <v>539</v>
       </c>
       <c r="H103" s="52"/>
       <c r="I103" s="52"/>
       <c r="J103" s="52" t="s">
-        <v>610</v>
+        <v>524</v>
       </c>
       <c r="K103" s="52"/>
       <c r="L103" s="52"/>
@@ -19264,7 +19257,7 @@
     </row>
     <row r="104" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="52" t="s">
-        <v>808</v>
+        <v>870</v>
       </c>
       <c r="B104" s="52">
         <v>10242</v>
@@ -19273,21 +19266,21 @@
         <v>43893</v>
       </c>
       <c r="D104" s="52" t="s">
-        <v>830</v>
+        <v>712</v>
       </c>
       <c r="E104" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F104" s="52" t="s">
-        <v>627</v>
+        <v>541</v>
       </c>
       <c r="G104" s="52" t="s">
-        <v>616</v>
+        <v>530</v>
       </c>
       <c r="H104" s="52"/>
       <c r="I104" s="52"/>
       <c r="J104" s="52" t="s">
-        <v>609</v>
+        <v>523</v>
       </c>
       <c r="K104" s="52"/>
       <c r="L104" s="52"/>
@@ -19295,7 +19288,7 @@
     </row>
     <row r="105" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="52" t="s">
-        <v>809</v>
+        <v>871</v>
       </c>
       <c r="B105" s="52">
         <v>10242</v>
@@ -19304,21 +19297,21 @@
         <v>43893</v>
       </c>
       <c r="D105" s="52" t="s">
-        <v>830</v>
+        <v>712</v>
       </c>
       <c r="E105" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F105" s="52" t="s">
-        <v>617</v>
+        <v>531</v>
       </c>
       <c r="G105" s="52" t="s">
-        <v>618</v>
+        <v>532</v>
       </c>
       <c r="H105" s="52"/>
       <c r="I105" s="52"/>
       <c r="J105" s="52" t="s">
-        <v>611</v>
+        <v>525</v>
       </c>
       <c r="K105" s="52"/>
       <c r="L105" s="52"/>
@@ -19326,7 +19319,7 @@
     </row>
     <row r="106" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="52" t="s">
-        <v>810</v>
+        <v>872</v>
       </c>
       <c r="B106" s="52">
         <v>10242</v>
@@ -19335,21 +19328,21 @@
         <v>43893</v>
       </c>
       <c r="D106" s="52" t="s">
-        <v>830</v>
+        <v>712</v>
       </c>
       <c r="E106" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F106" s="52" t="s">
-        <v>628</v>
+        <v>542</v>
       </c>
       <c r="G106" s="52" t="s">
-        <v>619</v>
+        <v>533</v>
       </c>
       <c r="H106" s="52"/>
       <c r="I106" s="52"/>
       <c r="J106" s="52" t="s">
-        <v>610</v>
+        <v>524</v>
       </c>
       <c r="K106" s="52"/>
       <c r="L106" s="52"/>
@@ -19357,7 +19350,7 @@
     </row>
     <row r="107" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="52" t="s">
-        <v>811</v>
+        <v>873</v>
       </c>
       <c r="B107" s="52">
         <v>10242</v>
@@ -19366,21 +19359,21 @@
         <v>43893</v>
       </c>
       <c r="D107" s="52" t="s">
-        <v>830</v>
+        <v>712</v>
       </c>
       <c r="E107" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F107" s="52" t="s">
-        <v>617</v>
+        <v>531</v>
       </c>
       <c r="G107" s="52" t="s">
-        <v>828</v>
+        <v>710</v>
       </c>
       <c r="H107" s="52"/>
       <c r="I107" s="52"/>
       <c r="J107" s="52" t="s">
-        <v>829</v>
+        <v>711</v>
       </c>
       <c r="K107" s="52"/>
       <c r="L107" s="52"/>
@@ -19388,7 +19381,7 @@
     </row>
     <row r="108" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="52" t="s">
-        <v>812</v>
+        <v>874</v>
       </c>
       <c r="B108" s="52">
         <v>10242</v>
@@ -19397,21 +19390,21 @@
         <v>43893</v>
       </c>
       <c r="D108" s="52" t="s">
-        <v>831</v>
+        <v>713</v>
       </c>
       <c r="E108" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F108" s="52" t="s">
-        <v>660</v>
+        <v>571</v>
       </c>
       <c r="G108" s="52" t="s">
-        <v>832</v>
+        <v>714</v>
       </c>
       <c r="H108" s="52"/>
       <c r="I108" s="52"/>
       <c r="J108" s="52" t="s">
-        <v>833</v>
+        <v>715</v>
       </c>
       <c r="K108" s="52"/>
       <c r="L108" s="52"/>
@@ -19419,7 +19412,7 @@
     </row>
     <row r="109" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="52" t="s">
-        <v>813</v>
+        <v>875</v>
       </c>
       <c r="B109" s="52">
         <v>10242</v>
@@ -19428,21 +19421,21 @@
         <v>43893</v>
       </c>
       <c r="D109" s="52" t="s">
-        <v>831</v>
+        <v>713</v>
       </c>
       <c r="E109" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F109" s="52" t="s">
-        <v>660</v>
+        <v>571</v>
       </c>
       <c r="G109" s="63" t="s">
-        <v>799</v>
+        <v>708</v>
       </c>
       <c r="H109" s="52"/>
       <c r="I109" s="52"/>
       <c r="J109" s="52" t="s">
-        <v>800</v>
+        <v>709</v>
       </c>
       <c r="K109" s="52"/>
       <c r="L109" s="52"/>
@@ -19450,7 +19443,7 @@
     </row>
     <row r="110" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" s="52" t="s">
-        <v>814</v>
+        <v>876</v>
       </c>
       <c r="B110" s="52">
         <v>10242</v>
@@ -19459,21 +19452,21 @@
         <v>43893</v>
       </c>
       <c r="D110" s="52" t="s">
-        <v>835</v>
+        <v>717</v>
       </c>
       <c r="E110" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F110" s="52" t="s">
-        <v>834</v>
+        <v>716</v>
       </c>
       <c r="G110" s="63" t="s">
-        <v>634</v>
+        <v>548</v>
       </c>
       <c r="H110" s="52"/>
       <c r="I110" s="52"/>
       <c r="J110" s="52" t="s">
-        <v>635</v>
+        <v>549</v>
       </c>
       <c r="K110" s="52"/>
       <c r="L110" s="52"/>
@@ -19481,7 +19474,7 @@
     </row>
     <row r="111" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="52" t="s">
-        <v>815</v>
+        <v>877</v>
       </c>
       <c r="B111" s="52">
         <v>10242</v>
@@ -19490,21 +19483,21 @@
         <v>43893</v>
       </c>
       <c r="D111" s="52" t="s">
-        <v>835</v>
+        <v>717</v>
       </c>
       <c r="E111" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F111" s="52" t="s">
-        <v>834</v>
+        <v>716</v>
       </c>
       <c r="G111" s="63" t="s">
-        <v>636</v>
+        <v>550</v>
       </c>
       <c r="H111" s="52"/>
       <c r="I111" s="52"/>
       <c r="J111" s="52" t="s">
-        <v>635</v>
+        <v>549</v>
       </c>
       <c r="K111" s="52"/>
       <c r="L111" s="52"/>
@@ -19512,7 +19505,7 @@
     </row>
     <row r="112" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="52" t="s">
-        <v>816</v>
+        <v>878</v>
       </c>
       <c r="B112" s="52">
         <v>10242</v>
@@ -19521,21 +19514,21 @@
         <v>43893</v>
       </c>
       <c r="D112" s="52" t="s">
-        <v>835</v>
+        <v>717</v>
       </c>
       <c r="E112" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F112" s="52" t="s">
-        <v>834</v>
+        <v>716</v>
       </c>
       <c r="G112" s="63" t="s">
-        <v>637</v>
+        <v>551</v>
       </c>
       <c r="H112" s="52"/>
       <c r="I112" s="52"/>
       <c r="J112" s="52" t="s">
-        <v>638</v>
+        <v>552</v>
       </c>
       <c r="K112" s="52"/>
       <c r="L112" s="52"/>
@@ -19543,7 +19536,7 @@
     </row>
     <row r="113" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="52" t="s">
-        <v>817</v>
+        <v>879</v>
       </c>
       <c r="B113" s="52">
         <v>10242</v>
@@ -19552,21 +19545,21 @@
         <v>43893</v>
       </c>
       <c r="D113" s="52" t="s">
-        <v>835</v>
+        <v>717</v>
       </c>
       <c r="E113" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F113" s="52" t="s">
-        <v>834</v>
+        <v>716</v>
       </c>
       <c r="G113" s="63" t="s">
-        <v>639</v>
+        <v>553</v>
       </c>
       <c r="H113" s="52"/>
       <c r="I113" s="52"/>
       <c r="J113" s="52" t="s">
-        <v>635</v>
+        <v>549</v>
       </c>
       <c r="K113" s="52"/>
       <c r="L113" s="52"/>
@@ -19574,7 +19567,7 @@
     </row>
     <row r="114" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="52" t="s">
-        <v>818</v>
+        <v>880</v>
       </c>
       <c r="B114" s="52">
         <v>10242</v>
@@ -19583,21 +19576,21 @@
         <v>43893</v>
       </c>
       <c r="D114" s="52" t="s">
-        <v>835</v>
+        <v>717</v>
       </c>
       <c r="E114" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F114" s="52" t="s">
-        <v>834</v>
+        <v>716</v>
       </c>
       <c r="G114" s="63" t="s">
-        <v>640</v>
+        <v>554</v>
       </c>
       <c r="H114" s="52"/>
       <c r="I114" s="52"/>
       <c r="J114" s="52" t="s">
-        <v>638</v>
+        <v>552</v>
       </c>
       <c r="K114" s="52"/>
       <c r="L114" s="52"/>
@@ -19605,7 +19598,7 @@
     </row>
     <row r="115" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="52" t="s">
-        <v>819</v>
+        <v>881</v>
       </c>
       <c r="B115" s="52">
         <v>10242</v>
@@ -19614,19 +19607,19 @@
         <v>43893</v>
       </c>
       <c r="D115" s="52" t="s">
-        <v>836</v>
+        <v>718</v>
       </c>
       <c r="E115" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F115" s="52" t="s">
-        <v>838</v>
+        <v>720</v>
       </c>
       <c r="G115" s="52"/>
       <c r="H115" s="52"/>
       <c r="I115" s="52"/>
       <c r="J115" s="52" t="s">
-        <v>837</v>
+        <v>719</v>
       </c>
       <c r="K115" s="52"/>
       <c r="L115" s="52"/>
@@ -19634,7 +19627,7 @@
     </row>
     <row r="116" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="52" t="s">
-        <v>820</v>
+        <v>882</v>
       </c>
       <c r="B116" s="52">
         <v>10242</v>
@@ -19643,19 +19636,19 @@
         <v>43893</v>
       </c>
       <c r="D116" s="52" t="s">
-        <v>839</v>
+        <v>721</v>
       </c>
       <c r="E116" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F116" s="52" t="s">
-        <v>840</v>
+        <v>722</v>
       </c>
       <c r="G116" s="52"/>
       <c r="H116" s="52"/>
       <c r="I116" s="52"/>
       <c r="J116" s="52" t="s">
-        <v>841</v>
+        <v>723</v>
       </c>
       <c r="K116" s="52"/>
       <c r="L116" s="52"/>
@@ -19663,7 +19656,7 @@
     </row>
     <row r="117" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="52" t="s">
-        <v>821</v>
+        <v>883</v>
       </c>
       <c r="B117" s="52">
         <v>10242</v>
@@ -19672,21 +19665,21 @@
         <v>43893</v>
       </c>
       <c r="D117" s="52" t="s">
-        <v>842</v>
+        <v>724</v>
       </c>
       <c r="E117" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F117" s="52" t="s">
-        <v>664</v>
+        <v>575</v>
       </c>
       <c r="G117" s="52" t="s">
-        <v>849</v>
+        <v>731</v>
       </c>
       <c r="H117" s="52"/>
       <c r="I117" s="52"/>
       <c r="J117" s="52" t="s">
-        <v>843</v>
+        <v>725</v>
       </c>
       <c r="K117" s="52"/>
       <c r="L117" s="52"/>
@@ -19694,7 +19687,7 @@
     </row>
     <row r="118" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="52" t="s">
-        <v>822</v>
+        <v>884</v>
       </c>
       <c r="B118" s="52">
         <v>10242</v>
@@ -19703,21 +19696,21 @@
         <v>43893</v>
       </c>
       <c r="D118" s="52" t="s">
-        <v>842</v>
+        <v>724</v>
       </c>
       <c r="E118" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F118" s="52" t="s">
-        <v>664</v>
+        <v>575</v>
       </c>
       <c r="G118" s="63" t="s">
-        <v>799</v>
+        <v>708</v>
       </c>
       <c r="H118" s="52"/>
       <c r="I118" s="52"/>
       <c r="J118" s="52" t="s">
-        <v>800</v>
+        <v>709</v>
       </c>
       <c r="K118" s="52"/>
       <c r="L118" s="52"/>
@@ -19725,7 +19718,7 @@
     </row>
     <row r="119" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="52" t="s">
-        <v>823</v>
+        <v>885</v>
       </c>
       <c r="B119" s="52">
         <v>10242</v>
@@ -19734,21 +19727,21 @@
         <v>43893</v>
       </c>
       <c r="D119" s="52" t="s">
-        <v>844</v>
+        <v>726</v>
       </c>
       <c r="E119" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F119" s="52" t="s">
-        <v>670</v>
+        <v>581</v>
       </c>
       <c r="G119" s="52" t="s">
-        <v>848</v>
+        <v>730</v>
       </c>
       <c r="H119" s="52"/>
       <c r="I119" s="52"/>
       <c r="J119" s="52" t="s">
-        <v>845</v>
+        <v>727</v>
       </c>
       <c r="K119" s="52"/>
       <c r="L119" s="52"/>
@@ -19756,7 +19749,7 @@
     </row>
     <row r="120" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="52" t="s">
-        <v>824</v>
+        <v>886</v>
       </c>
       <c r="B120" s="52">
         <v>10242</v>
@@ -19765,21 +19758,21 @@
         <v>43893</v>
       </c>
       <c r="D120" s="52" t="s">
-        <v>844</v>
+        <v>726</v>
       </c>
       <c r="E120" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F120" s="52" t="s">
-        <v>670</v>
+        <v>581</v>
       </c>
       <c r="G120" s="63" t="s">
-        <v>799</v>
+        <v>708</v>
       </c>
       <c r="H120" s="52"/>
       <c r="I120" s="52"/>
       <c r="J120" s="52" t="s">
-        <v>800</v>
+        <v>709</v>
       </c>
       <c r="K120" s="52"/>
       <c r="L120" s="52"/>
@@ -19787,7 +19780,7 @@
     </row>
     <row r="121" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="52" t="s">
-        <v>825</v>
+        <v>887</v>
       </c>
       <c r="B121" s="52">
         <v>10242</v>
@@ -19796,21 +19789,21 @@
         <v>43893</v>
       </c>
       <c r="D121" s="52" t="s">
-        <v>846</v>
+        <v>728</v>
       </c>
       <c r="E121" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F121" s="52" t="s">
-        <v>676</v>
+        <v>587</v>
       </c>
       <c r="G121" s="52" t="s">
-        <v>847</v>
+        <v>729</v>
       </c>
       <c r="H121" s="52"/>
       <c r="I121" s="52"/>
       <c r="J121" s="52" t="s">
-        <v>899</v>
+        <v>737</v>
       </c>
       <c r="K121" s="52"/>
       <c r="L121" s="52"/>
@@ -19818,7 +19811,7 @@
     </row>
     <row r="122" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="52" t="s">
-        <v>826</v>
+        <v>888</v>
       </c>
       <c r="B122" s="52">
         <v>10242</v>
@@ -19827,21 +19820,21 @@
         <v>43893</v>
       </c>
       <c r="D122" s="52" t="s">
-        <v>846</v>
+        <v>728</v>
       </c>
       <c r="E122" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F122" s="52" t="s">
-        <v>676</v>
+        <v>587</v>
       </c>
       <c r="G122" s="63" t="s">
-        <v>799</v>
+        <v>708</v>
       </c>
       <c r="H122" s="52"/>
       <c r="I122" s="52"/>
       <c r="J122" s="52" t="s">
-        <v>800</v>
+        <v>709</v>
       </c>
       <c r="K122" s="52"/>
       <c r="L122" s="52"/>
@@ -19849,7 +19842,7 @@
     </row>
     <row r="123" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="52" t="s">
-        <v>827</v>
+        <v>889</v>
       </c>
       <c r="B123" s="52">
         <v>10242</v>
@@ -19858,21 +19851,21 @@
         <v>43893</v>
       </c>
       <c r="D123" s="52" t="s">
-        <v>894</v>
+        <v>732</v>
       </c>
       <c r="E123" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F123" s="52" t="s">
-        <v>680</v>
+        <v>591</v>
       </c>
       <c r="G123" s="52" t="s">
-        <v>895</v>
+        <v>733</v>
       </c>
       <c r="H123" s="52"/>
       <c r="I123" s="52"/>
       <c r="J123" s="52" t="s">
-        <v>900</v>
+        <v>738</v>
       </c>
       <c r="K123" s="52"/>
       <c r="L123" s="52"/>
@@ -19880,7 +19873,7 @@
     </row>
     <row r="124" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="52" t="s">
-        <v>850</v>
+        <v>890</v>
       </c>
       <c r="B124" s="52">
         <v>10242</v>
@@ -19889,21 +19882,21 @@
         <v>43893</v>
       </c>
       <c r="D124" s="52" t="s">
-        <v>894</v>
+        <v>732</v>
       </c>
       <c r="E124" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F124" s="52" t="s">
-        <v>680</v>
+        <v>591</v>
       </c>
       <c r="G124" s="63" t="s">
-        <v>799</v>
+        <v>708</v>
       </c>
       <c r="H124" s="52"/>
       <c r="I124" s="52"/>
       <c r="J124" s="52" t="s">
-        <v>800</v>
+        <v>709</v>
       </c>
       <c r="K124" s="52"/>
       <c r="L124" s="52"/>
@@ -19911,7 +19904,7 @@
     </row>
     <row r="125" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="52" t="s">
-        <v>851</v>
+        <v>891</v>
       </c>
       <c r="B125" s="52">
         <v>10242</v>
@@ -19920,19 +19913,19 @@
         <v>43893</v>
       </c>
       <c r="D125" s="52" t="s">
-        <v>898</v>
+        <v>736</v>
       </c>
       <c r="E125" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F125" s="52" t="s">
-        <v>897</v>
+        <v>735</v>
       </c>
       <c r="G125" s="52"/>
       <c r="H125" s="52"/>
       <c r="I125" s="52"/>
       <c r="J125" s="52" t="s">
-        <v>681</v>
+        <v>592</v>
       </c>
       <c r="K125" s="52"/>
       <c r="L125" s="52"/>
@@ -19940,7 +19933,7 @@
     </row>
     <row r="126" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="52" t="s">
-        <v>852</v>
+        <v>892</v>
       </c>
       <c r="B126" s="52">
         <v>10242</v>
@@ -19949,21 +19942,21 @@
         <v>43893</v>
       </c>
       <c r="D126" s="52" t="s">
-        <v>898</v>
+        <v>736</v>
       </c>
       <c r="E126" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F126" s="52" t="s">
-        <v>685</v>
+        <v>596</v>
       </c>
       <c r="G126" s="63" t="s">
-        <v>896</v>
+        <v>734</v>
       </c>
       <c r="H126" s="52"/>
       <c r="I126" s="52"/>
       <c r="J126" s="52" t="s">
-        <v>687</v>
+        <v>598</v>
       </c>
       <c r="K126" s="52"/>
       <c r="L126" s="52"/>
@@ -19971,7 +19964,7 @@
     </row>
     <row r="127" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="52" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="B127" s="52">
         <v>10242</v>
@@ -19980,21 +19973,21 @@
         <v>43893</v>
       </c>
       <c r="D127" s="52" t="s">
-        <v>898</v>
+        <v>736</v>
       </c>
       <c r="E127" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F127" s="52" t="s">
-        <v>685</v>
+        <v>596</v>
       </c>
       <c r="G127" s="63" t="s">
-        <v>689</v>
+        <v>600</v>
       </c>
       <c r="H127" s="52"/>
       <c r="I127" s="52"/>
       <c r="J127" s="52" t="s">
-        <v>690</v>
+        <v>601</v>
       </c>
       <c r="K127" s="52"/>
       <c r="L127" s="52"/>
@@ -20002,7 +19995,7 @@
     </row>
     <row r="128" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="52" t="s">
-        <v>854</v>
+        <v>894</v>
       </c>
       <c r="B128" s="52">
         <v>10242</v>
@@ -20011,21 +20004,21 @@
         <v>43893</v>
       </c>
       <c r="D128" s="52" t="s">
-        <v>901</v>
+        <v>739</v>
       </c>
       <c r="E128" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F128" s="52" t="s">
-        <v>694</v>
+        <v>605</v>
       </c>
       <c r="G128" s="52" t="s">
-        <v>903</v>
+        <v>741</v>
       </c>
       <c r="H128" s="52"/>
       <c r="I128" s="52"/>
       <c r="J128" s="52" t="s">
-        <v>902</v>
+        <v>740</v>
       </c>
       <c r="K128" s="52"/>
       <c r="L128" s="52"/>
@@ -20033,7 +20026,7 @@
     </row>
     <row r="129" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="52" t="s">
-        <v>855</v>
+        <v>895</v>
       </c>
       <c r="B129" s="52">
         <v>10242</v>
@@ -20042,21 +20035,21 @@
         <v>43893</v>
       </c>
       <c r="D129" s="52" t="s">
-        <v>901</v>
+        <v>739</v>
       </c>
       <c r="E129" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F129" s="52" t="s">
-        <v>694</v>
+        <v>605</v>
       </c>
       <c r="G129" s="63" t="s">
-        <v>799</v>
+        <v>708</v>
       </c>
       <c r="H129" s="52"/>
       <c r="I129" s="52"/>
       <c r="J129" s="52" t="s">
-        <v>800</v>
+        <v>709</v>
       </c>
       <c r="K129" s="52"/>
       <c r="L129" s="52"/>
@@ -20064,7 +20057,7 @@
     </row>
     <row r="130" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" s="52" t="s">
-        <v>856</v>
+        <v>896</v>
       </c>
       <c r="B130" s="52">
         <v>10242</v>
@@ -20073,19 +20066,19 @@
         <v>43893</v>
       </c>
       <c r="D130" s="52" t="s">
-        <v>905</v>
+        <v>743</v>
       </c>
       <c r="E130" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F130" s="52" t="s">
-        <v>904</v>
+        <v>742</v>
       </c>
       <c r="G130" s="52"/>
       <c r="H130" s="52"/>
       <c r="I130" s="52"/>
       <c r="J130" s="52" t="s">
-        <v>698</v>
+        <v>609</v>
       </c>
       <c r="K130" s="52"/>
       <c r="L130" s="52"/>
@@ -20093,7 +20086,7 @@
     </row>
     <row r="131" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="52" t="s">
-        <v>857</v>
+        <v>897</v>
       </c>
       <c r="B131" s="52">
         <v>10242</v>
@@ -20102,21 +20095,21 @@
         <v>43893</v>
       </c>
       <c r="D131" s="52" t="s">
-        <v>905</v>
+        <v>743</v>
       </c>
       <c r="E131" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F131" s="52" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="G131" s="52" t="s">
-        <v>702</v>
+        <v>613</v>
       </c>
       <c r="H131" s="52"/>
       <c r="I131" s="52"/>
       <c r="J131" s="52" t="s">
-        <v>699</v>
+        <v>610</v>
       </c>
       <c r="K131" s="52"/>
       <c r="L131" s="52"/>
@@ -20124,7 +20117,7 @@
     </row>
     <row r="132" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="52" t="s">
-        <v>858</v>
+        <v>898</v>
       </c>
       <c r="B132" s="52">
         <v>10242</v>
@@ -20133,21 +20126,21 @@
         <v>43893</v>
       </c>
       <c r="D132" s="52" t="s">
-        <v>905</v>
+        <v>743</v>
       </c>
       <c r="E132" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F132" s="52" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="G132" s="63" t="s">
-        <v>704</v>
+        <v>615</v>
       </c>
       <c r="H132" s="52"/>
       <c r="I132" s="52"/>
       <c r="J132" s="52" t="s">
-        <v>703</v>
+        <v>614</v>
       </c>
       <c r="K132" s="52"/>
       <c r="L132" s="52"/>
@@ -20155,7 +20148,7 @@
     </row>
     <row r="133" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="52" t="s">
-        <v>859</v>
+        <v>899</v>
       </c>
       <c r="B133" s="52">
         <v>10242</v>
@@ -20164,21 +20157,21 @@
         <v>43893</v>
       </c>
       <c r="D133" s="52" t="s">
-        <v>905</v>
+        <v>743</v>
       </c>
       <c r="E133" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F133" s="52" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="G133" s="63" t="s">
-        <v>705</v>
+        <v>616</v>
       </c>
       <c r="H133" s="52"/>
       <c r="I133" s="52"/>
       <c r="J133" s="52" t="s">
-        <v>703</v>
+        <v>614</v>
       </c>
       <c r="K133" s="52"/>
       <c r="L133" s="52"/>
@@ -20186,7 +20179,7 @@
     </row>
     <row r="134" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" s="52" t="s">
-        <v>860</v>
+        <v>900</v>
       </c>
       <c r="B134" s="52">
         <v>10242</v>
@@ -20195,21 +20188,21 @@
         <v>43893</v>
       </c>
       <c r="D134" s="52" t="s">
-        <v>905</v>
+        <v>743</v>
       </c>
       <c r="E134" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F134" s="52" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="G134" s="63" t="s">
-        <v>706</v>
+        <v>617</v>
       </c>
       <c r="H134" s="52"/>
       <c r="I134" s="52"/>
       <c r="J134" s="52" t="s">
-        <v>707</v>
+        <v>618</v>
       </c>
       <c r="K134" s="52"/>
       <c r="L134" s="52"/>
@@ -20217,7 +20210,7 @@
     </row>
     <row r="135" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="52" t="s">
-        <v>861</v>
+        <v>901</v>
       </c>
       <c r="B135" s="52">
         <v>10242</v>
@@ -20226,21 +20219,21 @@
         <v>43893</v>
       </c>
       <c r="D135" s="52" t="s">
-        <v>905</v>
+        <v>743</v>
       </c>
       <c r="E135" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F135" s="52" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="G135" s="63" t="s">
-        <v>708</v>
+        <v>619</v>
       </c>
       <c r="H135" s="52"/>
       <c r="I135" s="52"/>
       <c r="J135" s="52" t="s">
-        <v>709</v>
+        <v>620</v>
       </c>
       <c r="K135" s="52"/>
       <c r="L135" s="52"/>
@@ -20248,7 +20241,7 @@
     </row>
     <row r="136" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="52" t="s">
-        <v>862</v>
+        <v>902</v>
       </c>
       <c r="B136" s="52">
         <v>10242</v>
@@ -20257,21 +20250,21 @@
         <v>43893</v>
       </c>
       <c r="D136" s="52" t="s">
-        <v>905</v>
+        <v>743</v>
       </c>
       <c r="E136" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F136" s="52" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="G136" s="63" t="s">
-        <v>710</v>
+        <v>621</v>
       </c>
       <c r="H136" s="52"/>
       <c r="I136" s="52"/>
       <c r="J136" s="52" t="s">
-        <v>711</v>
+        <v>622</v>
       </c>
       <c r="K136" s="52"/>
       <c r="L136" s="52"/>
@@ -20279,7 +20272,7 @@
     </row>
     <row r="137" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="52" t="s">
-        <v>863</v>
+        <v>903</v>
       </c>
       <c r="B137" s="52">
         <v>10242</v>
@@ -20288,21 +20281,21 @@
         <v>43893</v>
       </c>
       <c r="D137" s="52" t="s">
-        <v>908</v>
+        <v>746</v>
       </c>
       <c r="E137" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F137" s="52" t="s">
-        <v>716</v>
+        <v>627</v>
       </c>
       <c r="G137" s="52" t="s">
-        <v>906</v>
+        <v>744</v>
       </c>
       <c r="H137" s="52"/>
       <c r="I137" s="52"/>
       <c r="J137" s="52" t="s">
-        <v>907</v>
+        <v>745</v>
       </c>
       <c r="K137" s="52"/>
       <c r="L137" s="52"/>
@@ -20310,7 +20303,7 @@
     </row>
     <row r="138" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="52" t="s">
-        <v>864</v>
+        <v>904</v>
       </c>
       <c r="B138" s="52">
         <v>10242</v>
@@ -20319,21 +20312,21 @@
         <v>43893</v>
       </c>
       <c r="D138" s="52" t="s">
-        <v>909</v>
+        <v>747</v>
       </c>
       <c r="E138" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F138" s="52" t="s">
-        <v>716</v>
+        <v>627</v>
       </c>
       <c r="G138" s="63" t="s">
-        <v>799</v>
+        <v>708</v>
       </c>
       <c r="H138" s="52"/>
       <c r="I138" s="52"/>
       <c r="J138" s="52" t="s">
-        <v>800</v>
+        <v>709</v>
       </c>
       <c r="K138" s="52"/>
       <c r="L138" s="52"/>
@@ -20341,7 +20334,7 @@
     </row>
     <row r="139" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="52" t="s">
-        <v>865</v>
+        <v>905</v>
       </c>
       <c r="B139" s="52">
         <v>10242</v>
@@ -20350,19 +20343,19 @@
         <v>43893</v>
       </c>
       <c r="D139" s="52" t="s">
-        <v>912</v>
+        <v>750</v>
       </c>
       <c r="E139" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F139" s="52" t="s">
-        <v>911</v>
+        <v>749</v>
       </c>
       <c r="G139" s="52"/>
       <c r="H139" s="52"/>
       <c r="I139" s="52"/>
       <c r="J139" s="52" t="s">
-        <v>719</v>
+        <v>630</v>
       </c>
       <c r="K139" s="52"/>
       <c r="L139" s="52"/>
@@ -20370,7 +20363,7 @@
     </row>
     <row r="140" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="52" t="s">
-        <v>866</v>
+        <v>906</v>
       </c>
       <c r="B140" s="52">
         <v>10242</v>
@@ -20379,21 +20372,21 @@
         <v>43893</v>
       </c>
       <c r="D140" s="52" t="s">
-        <v>912</v>
+        <v>750</v>
       </c>
       <c r="E140" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F140" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G140" s="52" t="s">
-        <v>910</v>
+        <v>748</v>
       </c>
       <c r="H140" s="52"/>
       <c r="I140" s="52"/>
       <c r="J140" s="52" t="s">
-        <v>722</v>
+        <v>633</v>
       </c>
       <c r="K140" s="52"/>
       <c r="L140" s="52"/>
@@ -20401,7 +20394,7 @@
     </row>
     <row r="141" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="52" t="s">
-        <v>867</v>
+        <v>907</v>
       </c>
       <c r="B141" s="52">
         <v>10242</v>
@@ -20410,21 +20403,21 @@
         <v>43893</v>
       </c>
       <c r="D141" s="52" t="s">
-        <v>912</v>
+        <v>750</v>
       </c>
       <c r="E141" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F141" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G141" s="52" t="s">
-        <v>725</v>
+        <v>636</v>
       </c>
       <c r="H141" s="52"/>
       <c r="I141" s="52"/>
       <c r="J141" s="52" t="s">
-        <v>726</v>
+        <v>637</v>
       </c>
       <c r="K141" s="52"/>
       <c r="L141" s="52"/>
@@ -20432,7 +20425,7 @@
     </row>
     <row r="142" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="52" t="s">
-        <v>868</v>
+        <v>908</v>
       </c>
       <c r="B142" s="52">
         <v>10242</v>
@@ -20441,21 +20434,21 @@
         <v>43893</v>
       </c>
       <c r="D142" s="52" t="s">
-        <v>915</v>
+        <v>753</v>
       </c>
       <c r="E142" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F142" s="52" t="s">
-        <v>731</v>
+        <v>642</v>
       </c>
       <c r="G142" s="52" t="s">
-        <v>913</v>
+        <v>751</v>
       </c>
       <c r="H142" s="52"/>
       <c r="I142" s="52"/>
       <c r="J142" s="52" t="s">
-        <v>914</v>
+        <v>752</v>
       </c>
       <c r="K142" s="52"/>
       <c r="L142" s="52"/>
@@ -20463,7 +20456,7 @@
     </row>
     <row r="143" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="52" t="s">
-        <v>869</v>
+        <v>909</v>
       </c>
       <c r="B143" s="52">
         <v>10242</v>
@@ -20472,21 +20465,21 @@
         <v>43893</v>
       </c>
       <c r="D143" s="52" t="s">
-        <v>915</v>
+        <v>753</v>
       </c>
       <c r="E143" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F143" s="52" t="s">
-        <v>731</v>
+        <v>642</v>
       </c>
       <c r="G143" s="63" t="s">
-        <v>799</v>
+        <v>708</v>
       </c>
       <c r="H143" s="52"/>
       <c r="I143" s="52"/>
       <c r="J143" s="52" t="s">
-        <v>800</v>
+        <v>709</v>
       </c>
       <c r="K143" s="52"/>
       <c r="L143" s="52"/>
@@ -20494,7 +20487,7 @@
     </row>
     <row r="144" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="52" t="s">
-        <v>870</v>
+        <v>910</v>
       </c>
       <c r="B144" s="52">
         <v>10242</v>
@@ -20503,19 +20496,19 @@
         <v>43893</v>
       </c>
       <c r="D144" s="52" t="s">
-        <v>918</v>
+        <v>756</v>
       </c>
       <c r="E144" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F144" s="52" t="s">
-        <v>916</v>
+        <v>754</v>
       </c>
       <c r="G144" s="52"/>
       <c r="H144" s="52"/>
       <c r="I144" s="52"/>
       <c r="J144" s="52" t="s">
-        <v>734</v>
+        <v>645</v>
       </c>
       <c r="K144" s="52"/>
       <c r="L144" s="52"/>
@@ -20523,7 +20516,7 @@
     </row>
     <row r="145" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="52" t="s">
-        <v>871</v>
+        <v>911</v>
       </c>
       <c r="B145" s="52">
         <v>10242</v>
@@ -20532,21 +20525,21 @@
         <v>43893</v>
       </c>
       <c r="D145" s="52" t="s">
-        <v>918</v>
+        <v>756</v>
       </c>
       <c r="E145" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F145" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G145" s="52" t="s">
-        <v>917</v>
+        <v>755</v>
       </c>
       <c r="H145" s="52"/>
       <c r="I145" s="52"/>
       <c r="J145" s="52" t="s">
-        <v>737</v>
+        <v>648</v>
       </c>
       <c r="K145" s="52"/>
       <c r="L145" s="52"/>
@@ -20554,7 +20547,7 @@
     </row>
     <row r="146" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="52" t="s">
-        <v>872</v>
+        <v>912</v>
       </c>
       <c r="B146" s="52">
         <v>10242</v>
@@ -20563,21 +20556,21 @@
         <v>43893</v>
       </c>
       <c r="D146" s="52" t="s">
-        <v>918</v>
+        <v>756</v>
       </c>
       <c r="E146" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F146" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G146" s="52" t="s">
-        <v>740</v>
+        <v>651</v>
       </c>
       <c r="H146" s="52"/>
       <c r="I146" s="52"/>
       <c r="J146" s="52" t="s">
-        <v>741</v>
+        <v>652</v>
       </c>
       <c r="K146" s="52"/>
       <c r="L146" s="52"/>
@@ -20585,7 +20578,7 @@
     </row>
     <row r="147" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="52" t="s">
-        <v>873</v>
+        <v>913</v>
       </c>
       <c r="B147" s="52">
         <v>10242</v>
@@ -20594,21 +20587,21 @@
         <v>43893</v>
       </c>
       <c r="D147" s="52" t="s">
-        <v>921</v>
+        <v>759</v>
       </c>
       <c r="E147" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F147" s="52" t="s">
-        <v>746</v>
+        <v>657</v>
       </c>
       <c r="G147" s="52" t="s">
-        <v>919</v>
+        <v>757</v>
       </c>
       <c r="H147" s="52"/>
       <c r="I147" s="52"/>
       <c r="J147" s="52" t="s">
-        <v>920</v>
+        <v>758</v>
       </c>
       <c r="K147" s="52"/>
       <c r="L147" s="52"/>
@@ -20616,7 +20609,7 @@
     </row>
     <row r="148" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="52" t="s">
-        <v>874</v>
+        <v>914</v>
       </c>
       <c r="B148" s="52">
         <v>10242</v>
@@ -20625,21 +20618,21 @@
         <v>43893</v>
       </c>
       <c r="D148" s="52" t="s">
-        <v>921</v>
+        <v>759</v>
       </c>
       <c r="E148" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F148" s="52" t="s">
-        <v>746</v>
+        <v>657</v>
       </c>
       <c r="G148" s="63" t="s">
-        <v>799</v>
+        <v>708</v>
       </c>
       <c r="H148" s="52"/>
       <c r="I148" s="52"/>
       <c r="J148" s="52" t="s">
-        <v>800</v>
+        <v>709</v>
       </c>
       <c r="K148" s="52"/>
       <c r="L148" s="52"/>
@@ -20647,7 +20640,7 @@
     </row>
     <row r="149" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="52" t="s">
-        <v>875</v>
+        <v>915</v>
       </c>
       <c r="B149" s="52">
         <v>10242</v>
@@ -20656,19 +20649,19 @@
         <v>43893</v>
       </c>
       <c r="D149" s="52" t="s">
-        <v>923</v>
+        <v>761</v>
       </c>
       <c r="E149" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F149" s="52" t="s">
-        <v>922</v>
+        <v>760</v>
       </c>
       <c r="G149" s="52"/>
       <c r="H149" s="52"/>
       <c r="I149" s="52"/>
       <c r="J149" s="52" t="s">
-        <v>749</v>
+        <v>660</v>
       </c>
       <c r="K149" s="52"/>
       <c r="L149" s="52"/>
@@ -20676,7 +20669,7 @@
     </row>
     <row r="150" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="52" t="s">
-        <v>876</v>
+        <v>916</v>
       </c>
       <c r="B150" s="52">
         <v>10242</v>
@@ -20685,21 +20678,21 @@
         <v>43893</v>
       </c>
       <c r="D150" s="52" t="s">
-        <v>923</v>
+        <v>761</v>
       </c>
       <c r="E150" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F150" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G150" s="52" t="s">
-        <v>751</v>
+        <v>662</v>
       </c>
       <c r="H150" s="52"/>
       <c r="I150" s="52"/>
       <c r="J150" s="52" t="s">
-        <v>754</v>
+        <v>665</v>
       </c>
       <c r="K150" s="52"/>
       <c r="L150" s="52"/>
@@ -20707,7 +20700,7 @@
     </row>
     <row r="151" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="52" t="s">
-        <v>877</v>
+        <v>917</v>
       </c>
       <c r="B151" s="52">
         <v>10242</v>
@@ -20716,21 +20709,21 @@
         <v>43893</v>
       </c>
       <c r="D151" s="52" t="s">
-        <v>923</v>
+        <v>761</v>
       </c>
       <c r="E151" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F151" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G151" s="52" t="s">
-        <v>752</v>
+        <v>663</v>
       </c>
       <c r="H151" s="52"/>
       <c r="I151" s="52"/>
       <c r="J151" s="52" t="s">
-        <v>755</v>
+        <v>666</v>
       </c>
       <c r="K151" s="52"/>
       <c r="L151" s="52"/>
@@ -20738,7 +20731,7 @@
     </row>
     <row r="152" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="52" t="s">
-        <v>878</v>
+        <v>918</v>
       </c>
       <c r="B152" s="52">
         <v>10242</v>
@@ -20747,21 +20740,21 @@
         <v>43893</v>
       </c>
       <c r="D152" s="52" t="s">
-        <v>923</v>
+        <v>761</v>
       </c>
       <c r="E152" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F152" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G152" s="52" t="s">
-        <v>753</v>
+        <v>664</v>
       </c>
       <c r="H152" s="52"/>
       <c r="I152" s="52"/>
       <c r="J152" s="52" t="s">
-        <v>754</v>
+        <v>665</v>
       </c>
       <c r="K152" s="52"/>
       <c r="L152" s="52"/>
@@ -20769,7 +20762,7 @@
     </row>
     <row r="153" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="52" t="s">
-        <v>879</v>
+        <v>919</v>
       </c>
       <c r="B153" s="52">
         <v>10242</v>
@@ -20778,21 +20771,21 @@
         <v>43893</v>
       </c>
       <c r="D153" s="52" t="s">
-        <v>923</v>
+        <v>761</v>
       </c>
       <c r="E153" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F153" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G153" s="52" t="s">
-        <v>756</v>
+        <v>667</v>
       </c>
       <c r="H153" s="52"/>
       <c r="I153" s="52"/>
       <c r="J153" s="52" t="s">
-        <v>757</v>
+        <v>668</v>
       </c>
       <c r="K153" s="52"/>
       <c r="L153" s="52"/>
@@ -20800,7 +20793,7 @@
     </row>
     <row r="154" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="52" t="s">
-        <v>880</v>
+        <v>920</v>
       </c>
       <c r="B154" s="52">
         <v>10242</v>
@@ -20809,21 +20802,21 @@
         <v>43893</v>
       </c>
       <c r="D154" s="52" t="s">
-        <v>923</v>
+        <v>761</v>
       </c>
       <c r="E154" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F154" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G154" s="52" t="s">
-        <v>758</v>
+        <v>669</v>
       </c>
       <c r="H154" s="52"/>
       <c r="I154" s="52"/>
       <c r="J154" s="52" t="s">
-        <v>759</v>
+        <v>670</v>
       </c>
       <c r="K154" s="52"/>
       <c r="L154" s="52"/>
@@ -20831,7 +20824,7 @@
     </row>
     <row r="155" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" s="52" t="s">
-        <v>881</v>
+        <v>921</v>
       </c>
       <c r="B155" s="52">
         <v>10242</v>
@@ -20840,19 +20833,19 @@
         <v>43893</v>
       </c>
       <c r="D155" s="52" t="s">
-        <v>925</v>
+        <v>763</v>
       </c>
       <c r="E155" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F155" s="52" t="s">
-        <v>924</v>
+        <v>762</v>
       </c>
       <c r="G155" s="52"/>
       <c r="H155" s="52"/>
       <c r="I155" s="52"/>
       <c r="J155" s="52" t="s">
-        <v>762</v>
+        <v>673</v>
       </c>
       <c r="K155" s="52"/>
       <c r="L155" s="52"/>
@@ -20860,7 +20853,7 @@
     </row>
     <row r="156" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="52" t="s">
-        <v>882</v>
+        <v>922</v>
       </c>
       <c r="B156" s="52">
         <v>10242</v>
@@ -20869,21 +20862,21 @@
         <v>43893</v>
       </c>
       <c r="D156" s="52" t="s">
-        <v>925</v>
+        <v>763</v>
       </c>
       <c r="E156" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F156" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G156" s="52" t="s">
-        <v>764</v>
+        <v>675</v>
       </c>
       <c r="H156" s="52"/>
       <c r="I156" s="52"/>
       <c r="J156" s="52" t="s">
-        <v>765</v>
+        <v>676</v>
       </c>
       <c r="K156" s="52"/>
       <c r="L156" s="52"/>
@@ -20891,7 +20884,7 @@
     </row>
     <row r="157" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="52" t="s">
-        <v>883</v>
+        <v>923</v>
       </c>
       <c r="B157" s="52">
         <v>10242</v>
@@ -20900,21 +20893,21 @@
         <v>43893</v>
       </c>
       <c r="D157" s="52" t="s">
-        <v>925</v>
+        <v>763</v>
       </c>
       <c r="E157" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F157" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G157" s="52" t="s">
-        <v>766</v>
+        <v>677</v>
       </c>
       <c r="H157" s="52"/>
       <c r="I157" s="52"/>
       <c r="J157" s="52" t="s">
-        <v>767</v>
+        <v>678</v>
       </c>
       <c r="K157" s="52"/>
       <c r="L157" s="52"/>
@@ -20922,7 +20915,7 @@
     </row>
     <row r="158" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="52" t="s">
-        <v>884</v>
+        <v>924</v>
       </c>
       <c r="B158" s="52">
         <v>10242</v>
@@ -20931,21 +20924,21 @@
         <v>43893</v>
       </c>
       <c r="D158" s="52" t="s">
-        <v>928</v>
+        <v>766</v>
       </c>
       <c r="E158" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F158" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G158" s="52" t="s">
-        <v>769</v>
+        <v>680</v>
       </c>
       <c r="H158" s="52"/>
       <c r="I158" s="52"/>
       <c r="J158" s="52" t="s">
-        <v>770</v>
+        <v>681</v>
       </c>
       <c r="K158" s="52"/>
       <c r="L158" s="52"/>
@@ -20953,7 +20946,7 @@
     </row>
     <row r="159" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="52" t="s">
-        <v>885</v>
+        <v>925</v>
       </c>
       <c r="B159" s="52">
         <v>10242</v>
@@ -20962,21 +20955,21 @@
         <v>43893</v>
       </c>
       <c r="D159" s="52" t="s">
-        <v>928</v>
+        <v>766</v>
       </c>
       <c r="E159" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F159" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G159" s="52" t="s">
-        <v>771</v>
+        <v>682</v>
       </c>
       <c r="H159" s="52"/>
       <c r="I159" s="52"/>
       <c r="J159" s="52" t="s">
-        <v>772</v>
+        <v>683</v>
       </c>
       <c r="K159" s="52"/>
       <c r="L159" s="52"/>
@@ -20984,7 +20977,7 @@
     </row>
     <row r="160" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="52" t="s">
-        <v>886</v>
+        <v>926</v>
       </c>
       <c r="B160" s="52">
         <v>10242</v>
@@ -20993,21 +20986,21 @@
         <v>43893</v>
       </c>
       <c r="D160" s="52" t="s">
-        <v>929</v>
+        <v>767</v>
       </c>
       <c r="E160" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F160" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G160" s="52" t="s">
-        <v>774</v>
+        <v>685</v>
       </c>
       <c r="H160" s="52"/>
       <c r="I160" s="52"/>
       <c r="J160" s="52" t="s">
-        <v>770</v>
+        <v>681</v>
       </c>
       <c r="K160" s="52"/>
       <c r="L160" s="52"/>
@@ -21015,7 +21008,7 @@
     </row>
     <row r="161" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="52" t="s">
-        <v>887</v>
+        <v>927</v>
       </c>
       <c r="B161" s="52">
         <v>10242</v>
@@ -21024,21 +21017,21 @@
         <v>43893</v>
       </c>
       <c r="D161" s="52" t="s">
-        <v>929</v>
+        <v>767</v>
       </c>
       <c r="E161" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F161" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G161" s="52" t="s">
-        <v>775</v>
+        <v>686</v>
       </c>
       <c r="H161" s="52"/>
       <c r="I161" s="52"/>
       <c r="J161" s="52" t="s">
-        <v>772</v>
+        <v>683</v>
       </c>
       <c r="K161" s="52"/>
       <c r="L161" s="52"/>
@@ -21046,7 +21039,7 @@
     </row>
     <row r="162" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" s="52" t="s">
-        <v>888</v>
+        <v>928</v>
       </c>
       <c r="B162" s="52">
         <v>10242</v>
@@ -21055,21 +21048,21 @@
         <v>43893</v>
       </c>
       <c r="D162" s="52" t="s">
-        <v>930</v>
+        <v>768</v>
       </c>
       <c r="E162" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F162" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G162" s="52" t="s">
-        <v>777</v>
+        <v>688</v>
       </c>
       <c r="H162" s="52"/>
       <c r="I162" s="52"/>
       <c r="J162" s="52" t="s">
-        <v>770</v>
+        <v>681</v>
       </c>
       <c r="K162" s="52"/>
       <c r="L162" s="52"/>
@@ -21077,7 +21070,7 @@
     </row>
     <row r="163" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" s="52" t="s">
-        <v>889</v>
+        <v>929</v>
       </c>
       <c r="B163" s="52">
         <v>10242</v>
@@ -21086,21 +21079,21 @@
         <v>43893</v>
       </c>
       <c r="D163" s="52" t="s">
-        <v>930</v>
+        <v>768</v>
       </c>
       <c r="E163" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F163" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G163" s="52" t="s">
-        <v>778</v>
+        <v>689</v>
       </c>
       <c r="H163" s="52"/>
       <c r="I163" s="52"/>
       <c r="J163" s="52" t="s">
-        <v>772</v>
+        <v>683</v>
       </c>
       <c r="K163" s="52"/>
       <c r="L163" s="52"/>
@@ -21108,7 +21101,7 @@
     </row>
     <row r="164" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="52" t="s">
-        <v>890</v>
+        <v>930</v>
       </c>
       <c r="B164" s="52">
         <v>10242</v>
@@ -21117,21 +21110,21 @@
         <v>43893</v>
       </c>
       <c r="D164" s="52" t="s">
-        <v>931</v>
+        <v>769</v>
       </c>
       <c r="E164" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F164" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G164" s="52" t="s">
-        <v>780</v>
+        <v>691</v>
       </c>
       <c r="H164" s="52"/>
       <c r="I164" s="52"/>
       <c r="J164" s="52" t="s">
-        <v>770</v>
+        <v>681</v>
       </c>
       <c r="K164" s="52"/>
       <c r="L164" s="52"/>
@@ -21139,7 +21132,7 @@
     </row>
     <row r="165" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A165" s="52" t="s">
-        <v>891</v>
+        <v>931</v>
       </c>
       <c r="B165" s="52">
         <v>10242</v>
@@ -21148,21 +21141,21 @@
         <v>43893</v>
       </c>
       <c r="D165" s="52" t="s">
-        <v>931</v>
+        <v>769</v>
       </c>
       <c r="E165" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F165" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G165" s="52" t="s">
-        <v>781</v>
+        <v>692</v>
       </c>
       <c r="H165" s="52"/>
       <c r="I165" s="52"/>
       <c r="J165" s="52" t="s">
-        <v>772</v>
+        <v>683</v>
       </c>
       <c r="K165" s="52"/>
       <c r="L165" s="52"/>
@@ -21170,7 +21163,7 @@
     </row>
     <row r="166" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="52" t="s">
-        <v>892</v>
+        <v>932</v>
       </c>
       <c r="B166" s="52">
         <v>10242</v>
@@ -21179,21 +21172,21 @@
         <v>43893</v>
       </c>
       <c r="D166" s="52" t="s">
-        <v>932</v>
+        <v>770</v>
       </c>
       <c r="E166" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F166" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G166" s="52" t="s">
-        <v>927</v>
+        <v>765</v>
       </c>
       <c r="H166" s="52"/>
       <c r="I166" s="52"/>
       <c r="J166" s="52" t="s">
-        <v>770</v>
+        <v>681</v>
       </c>
       <c r="K166" s="52"/>
       <c r="L166" s="52"/>
@@ -21201,7 +21194,7 @@
     </row>
     <row r="167" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="52" t="s">
-        <v>893</v>
+        <v>933</v>
       </c>
       <c r="B167" s="52">
         <v>10242</v>
@@ -21210,21 +21203,21 @@
         <v>43893</v>
       </c>
       <c r="D167" s="52" t="s">
-        <v>932</v>
+        <v>770</v>
       </c>
       <c r="E167" s="52" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="F167" s="52" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="G167" s="52" t="s">
-        <v>926</v>
+        <v>764</v>
       </c>
       <c r="H167" s="52"/>
       <c r="I167" s="52"/>
       <c r="J167" s="52" t="s">
-        <v>772</v>
+        <v>683</v>
       </c>
       <c r="K167" s="52"/>
       <c r="L167" s="52"/>
@@ -21232,14 +21225,14 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21269,37 +21262,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="101"/>
+      <c r="C2" s="103"/>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
       <c r="F2" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="78" t="s">
         <v>25</v>
       </c>
@@ -21314,17 +21307,17 @@
       <c r="A3" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="103">
+      <c r="B3" s="105">
         <v>43893</v>
       </c>
-      <c r="C3" s="103"/>
+      <c r="C3" s="105"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
       <c r="F3" s="78" t="s">
         <v>327</v>
       </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="102"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="80" t="s">
         <v>28</v>
       </c>
@@ -21346,10 +21339,10 @@
       <c r="F4" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="102" t="s">
-        <v>933</v>
-      </c>
-      <c r="H4" s="102"/>
+      <c r="G4" s="104" t="s">
+        <v>771</v>
+      </c>
+      <c r="H4" s="104"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
       <c r="K4" s="80"/>
@@ -21399,12 +21392,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
